--- a/RegressaoLogistica/Logit_Sigmoid(Logistic).xlsx
+++ b/RegressaoLogistica/Logit_Sigmoid(Logistic).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\zOutros_Materiais\N\MateriaisParaEstudo\RegressaoLogistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\DS_Share\Github\RegressaoLogistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B29F015-B6A8-42CD-A4F4-E8BAAF7454A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39FFEBF-95AC-45B2-AD65-E43D0F27CD03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,6 +1001,7 @@
         <c:axId val="1807300223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1839,6 +1840,7 @@
         <c:axId val="2025475551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6374,7 +6376,7 @@
   <dimension ref="B2:D103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/RegressaoLogistica/Logit_Sigmoid(Logistic).xlsx
+++ b/RegressaoLogistica/Logit_Sigmoid(Logistic).xlsx
@@ -1,67 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\DS_Share\Github\RegressaoLogistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\4Github\Github\RegressaoLogistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39FFEBF-95AC-45B2-AD65-E43D0F27CD03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EFDF00-891C-42C0-990C-FFD2EF11C600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Logistica" sheetId="2" r:id="rId2"/>
+    <sheet name="tentativa2" sheetId="4" r:id="rId3"/>
+    <sheet name="logodds" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Logistica!$S$4:$T$4</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">tentativa2!$Q$2:$Q$3</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Logistica!$O$1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">tentativa2!$L$1</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -107,12 +130,57 @@
   <si>
     <t>Verossimilhança</t>
   </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>PROBABILIDADE</t>
+  </si>
+  <si>
+    <t>-inf + inf</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>ODDS</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Beta0 + Beta1*X</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Otimizados</t>
+  </si>
+  <si>
+    <t>OLS</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Cost Function (LOG LIKELIHOOD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,16 +188,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,16 +231,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -240,11 +411,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p</c:v>
+                  <c:v>PROBABILIDADE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -263,7 +434,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$103</c:f>
+              <c:f>Sheet1!$B$4:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -575,12 +746,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:f>Sheet1!$C$4:$C$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>6.6928509242848554E-3</c:v>
+                  <c:v>6.6928509242848563E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.3915413442819707E-3</c:v>
@@ -589,28 +760,28 @@
                   <c:v>8.1625711531598897E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0132986528478152E-3</c:v>
+                  <c:v>9.0132986528478135E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9518018669043085E-3</c:v>
+                  <c:v>9.9518018669043067E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0986942630593162E-2</c:v>
+                  <c:v>1.0986942630593161E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2128434984274213E-2</c:v>
+                  <c:v>1.2128434984274215E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3386917827664744E-2</c:v>
+                  <c:v>1.3386917827664742E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4774031693273017E-2</c:v>
+                  <c:v>1.4774031693273015E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.630249937144089E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7986209962091496E-2</c:v>
+                  <c:v>1.7986209962091493E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.984030573407744E-2</c:v>
@@ -619,16 +790,16 @@
                   <c:v>2.1881270936130404E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4127021417669123E-2</c:v>
+                  <c:v>2.412702141766912E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.6596993576865773E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9312230751356229E-2</c:v>
+                  <c:v>2.9312230751356232E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2295464698450418E-2</c:v>
+                  <c:v>3.2295464698450412E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.557118927263607E-2</c:v>
@@ -643,13 +814,13 @@
                   <c:v>4.7425873177566663E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2153563078417613E-2</c:v>
+                  <c:v>5.2153563078417606E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.732417589886861E-2</c:v>
+                  <c:v>5.7324175898868616E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2973356056996346E-2</c:v>
+                  <c:v>6.297335605699636E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6.9138420343346663E-2</c:v>
@@ -661,13 +832,13 @@
                   <c:v>8.3172696493922213E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.1122961014855966E-2</c:v>
+                  <c:v>9.1122961014855952E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9750489119684982E-2</c:v>
+                  <c:v>9.9750489119684968E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10909682119561274</c:v>
+                  <c:v>0.10909682119561276</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.11920292202211738</c:v>
@@ -694,13 +865,13 @@
                   <c:v>0.21416501695744122</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23147521650098218</c:v>
+                  <c:v>0.23147521650098216</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24973989440488223</c:v>
+                  <c:v>0.2497398944048822</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26894142136999494</c:v>
+                  <c:v>0.26894142136999499</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.28905049737499583</c:v>
@@ -715,49 +886,49 @@
                   <c:v>0.35434369377420433</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.37754066879814518</c:v>
+                  <c:v>0.37754066879814524</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.40131233988754772</c:v>
+                  <c:v>0.40131233988754778</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.42555748318834075</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.45016600268752177</c:v>
+                  <c:v>0.45016600268752183</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.47502081252105982</c:v>
+                  <c:v>0.47502081252105977</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.49999999999999978</c:v>
+                  <c:v>0.49999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.52497918747893968</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.54983399731247773</c:v>
+                  <c:v>0.54983399731247762</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5744425168116587</c:v>
+                  <c:v>0.57444251681165881</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.59868766011245178</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.62245933120185426</c:v>
+                  <c:v>0.62245933120185437</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.64565630622579528</c:v>
+                  <c:v>0.64565630622579517</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.66818777216816583</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.68997448112761228</c:v>
+                  <c:v>0.68997448112761217</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.71094950262500367</c:v>
+                  <c:v>0.71094950262500378</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.73105857863000467</c:v>
@@ -766,16 +937,16 @@
                   <c:v>0.75026010559511735</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.76852478349901743</c:v>
+                  <c:v>0.76852478349901754</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7858349830425585</c:v>
+                  <c:v>0.78583498304255861</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.80218388855858169</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.81757447619364365</c:v>
+                  <c:v>0.81757447619364354</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.83201838513392445</c:v>
@@ -784,16 +955,16 @@
                   <c:v>0.84553473491646525</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.85814893509951207</c:v>
+                  <c:v>0.85814893509951218</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.86989152563700212</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.88079707797788231</c:v>
+                  <c:v>0.88079707797788243</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.89090317880438707</c:v>
+                  <c:v>0.89090317880438696</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.9002495108803148</c:v>
@@ -805,10 +976,10 @@
                   <c:v>0.91682730350607766</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.92414181997875655</c:v>
+                  <c:v>0.92414181997875644</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.93086157965665328</c:v>
+                  <c:v>0.93086157965665317</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.9370266439430035</c:v>
@@ -820,7 +991,7 @@
                   <c:v>0.94784643692158232</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.95257412682243336</c:v>
+                  <c:v>0.95257412682243325</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.95689274505891386</c:v>
@@ -838,13 +1009,13 @@
                   <c:v>0.97068776924864375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.97340300642313404</c:v>
+                  <c:v>0.97340300642313415</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.9758729785823308</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.97811872906386943</c:v>
+                  <c:v>0.97811872906386954</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.98015969426592253</c:v>
@@ -859,7 +1030,7 @@
                   <c:v>0.98522596830672693</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.98661308217233512</c:v>
+                  <c:v>0.98661308217233523</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0.98787156501572571</c:v>
@@ -868,19 +1039,19 @@
                   <c:v>0.98901305736940681</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.99004819813309575</c:v>
+                  <c:v>0.99004819813309564</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99098670134715205</c:v>
+                  <c:v>0.99098670134715217</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0.99183742884684012</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99260845865571812</c:v>
+                  <c:v>0.99260845865571801</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.99330714907571505</c:v>
+                  <c:v>0.99330714907571516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +1172,6 @@
         <c:axId val="1807300223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1131,8 +1301,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Odds</a:t>
+              <a:t>ln(odds)</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> x odds</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1173,7 +1348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1196,319 +1371,319 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$103</c:f>
+              <c:f>Sheet1!$D$4:$D$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>6.6928509242848554E-3</c:v>
+                  <c:v>6.7379469990854679E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3915413442819707E-3</c:v>
+                  <c:v>7.4465830709243381E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1625711531598897E-3</c:v>
+                  <c:v>8.2297470490200232E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0132986528478152E-3</c:v>
+                  <c:v>9.0952771016958069E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9518018669043085E-3</c:v>
+                  <c:v>1.0051835744633565E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0986942630593162E-2</c:v>
+                  <c:v>1.1108996538242287E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2128434984274213E-2</c:v>
+                  <c:v>1.2277339903068415E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3386917827664744E-2</c:v>
+                  <c:v>1.3568559012200896E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4774031693273017E-2</c:v>
+                  <c:v>1.4995576820477662E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.630249937144089E-2</c:v>
+                  <c:v>1.6572675401761196E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7986209962091496E-2</c:v>
+                  <c:v>1.8315638888734113E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.984030573407744E-2</c:v>
+                  <c:v>2.0241911445804318E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1881270936130404E-2</c:v>
+                  <c:v>2.2370771856165525E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4127021417669123E-2</c:v>
+                  <c:v>2.4723526470339305E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6596993576865773E-2</c:v>
+                  <c:v>2.7323722447292472E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9312230751356229E-2</c:v>
+                  <c:v>3.0197383422318411E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2295464698450418E-2</c:v>
+                  <c:v>3.3373269960325976E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.557118927263607E-2</c:v>
+                  <c:v>3.688316740123989E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9165722796764252E-2</c:v>
+                  <c:v>4.07622039783661E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3107254941086012E-2</c:v>
+                  <c:v>4.5049202393557683E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7425873177566663E-2</c:v>
+                  <c:v>4.9787068367863813E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2153563078417613E-2</c:v>
+                  <c:v>5.5023220056407085E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.732417589886861E-2</c:v>
+                  <c:v>6.081006262521782E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2973356056996346E-2</c:v>
+                  <c:v>6.7205512739749618E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9138420343346663E-2</c:v>
+                  <c:v>7.427357821433371E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.5858180021243393E-2</c:v>
+                  <c:v>8.208499862389862E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3172696493922213E-2</c:v>
+                  <c:v>9.0717953289412318E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.1122961014855966E-2</c:v>
+                  <c:v>0.10025884372280351</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9750489119684982E-2</c:v>
+                  <c:v>0.11080315836233366</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10909682119561274</c:v>
+                  <c:v>0.12245642825298167</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11920292202211738</c:v>
+                  <c:v>0.13533528323661245</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13010847436299766</c:v>
+                  <c:v>0.14956861922263481</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1418510649004876</c:v>
+                  <c:v>0.16529888822158628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1544652650835345</c:v>
+                  <c:v>0.18268352405273439</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16798161486607532</c:v>
+                  <c:v>0.20189651799465513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.18242552380635615</c:v>
+                  <c:v>0.22313016014842954</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.19781611144141806</c:v>
+                  <c:v>0.24659696394160618</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.21416501695744122</c:v>
+                  <c:v>0.27253179303401232</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23147521650098218</c:v>
+                  <c:v>0.30119421191220175</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24973989440488223</c:v>
+                  <c:v>0.33287108369807922</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26894142136999494</c:v>
+                  <c:v>0.36787944117144206</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.28905049737499583</c:v>
+                  <c:v>0.40656965974059872</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.31002551887238738</c:v>
+                  <c:v>0.44932896411722123</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.33181222783183367</c:v>
+                  <c:v>0.49658530379140897</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35434369377420433</c:v>
+                  <c:v>0.54881163609402595</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.37754066879814518</c:v>
+                  <c:v>0.60653065971263298</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.40131233988754772</c:v>
+                  <c:v>0.67032004603563866</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.42555748318834075</c:v>
+                  <c:v>0.7408182206817171</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.45016600268752177</c:v>
+                  <c:v>0.81873075307798093</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.47502081252105982</c:v>
+                  <c:v>0.90483741803595863</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.49999999999999978</c:v>
+                  <c:v>0.999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.52497918747893968</c:v>
+                  <c:v>1.1051709180756462</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.54983399731247773</c:v>
+                  <c:v>1.2214027581601683</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5744425168116587</c:v>
+                  <c:v>1.3498588075760021</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.59868766011245178</c:v>
+                  <c:v>1.491824697641269</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.62245933120185426</c:v>
+                  <c:v>1.6487212707001269</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.64565630622579528</c:v>
+                  <c:v>1.8221188003905067</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.66818777216816583</c:v>
+                  <c:v>2.013752707470474</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.68997448112761228</c:v>
+                  <c:v>2.2255409284924648</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.71094950262500367</c:v>
+                  <c:v>2.4596031111569476</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.73105857863000467</c:v>
+                  <c:v>2.7182818284590424</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.75026010559511735</c:v>
+                  <c:v>3.004166023946429</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.76852478349901743</c:v>
+                  <c:v>3.3201169227365455</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7858349830425585</c:v>
+                  <c:v>3.669296667619244</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.80218388855858169</c:v>
+                  <c:v>4.0551999668446728</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.81757447619364365</c:v>
+                  <c:v>4.481689070338061</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.83201838513392445</c:v>
+                  <c:v>4.953032424395114</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.84553473491646525</c:v>
+                  <c:v>5.4739473917271981</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.85814893509951207</c:v>
+                  <c:v>6.0496474644129448</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.86989152563700212</c:v>
+                  <c:v>6.6858944422792677</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.88079707797788231</c:v>
+                  <c:v>7.3890560989306486</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.89090317880438707</c:v>
+                  <c:v>8.166169912567641</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.9002495108803148</c:v>
+                  <c:v>9.0250134994341149</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.90887703898514383</c:v>
+                  <c:v>9.9741824548147164</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.91682730350607766</c:v>
+                  <c:v>11.023176380641607</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.92414181997875655</c:v>
+                  <c:v>12.182493960703471</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.93086157965665328</c:v>
+                  <c:v>13.463738035001688</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.9370266439430035</c:v>
+                  <c:v>14.879731724872832</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.94267582410113127</c:v>
+                  <c:v>16.444646771097055</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.94784643692158232</c:v>
+                  <c:v>18.174145369443082</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.95257412682243336</c:v>
+                  <c:v>20.085536923187682</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.95689274505891386</c:v>
+                  <c:v>22.197951281441625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.96083427720323566</c:v>
+                  <c:v>24.532530197109363</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.96442881072736386</c:v>
+                  <c:v>27.112638920657915</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.96770453530154954</c:v>
+                  <c:v>29.964100047397061</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.97068776924864375</c:v>
+                  <c:v>33.115451958692397</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.97340300642313404</c:v>
+                  <c:v>36.598234443678002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9758729785823308</c:v>
+                  <c:v>40.447304360067385</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.97811872906386943</c:v>
+                  <c:v>44.70118449330085</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.98015969426592253</c:v>
+                  <c:v>49.402449105530273</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98201379003790845</c:v>
+                  <c:v>54.598150033144272</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.9836975006285591</c:v>
+                  <c:v>60.340287597362106</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.98522596830672693</c:v>
+                  <c:v>66.686331040925083</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.98661308217233512</c:v>
+                  <c:v>73.699793699595844</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.98787156501572571</c:v>
+                  <c:v>81.450868664967743</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.98901305736940681</c:v>
+                  <c:v>90.01713130052174</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.99004819813309575</c:v>
+                  <c:v>99.484315641933378</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99098670134715205</c:v>
+                  <c:v>109.94717245212338</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.99183742884684012</c:v>
+                  <c:v>121.5104175187351</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99260845865571812</c:v>
+                  <c:v>134.28977968493513</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.99330714907571505</c:v>
+                  <c:v>148.41315910257688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$103</c:f>
+              <c:f>Sheet1!$E$4:$E$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1633,7 +1808,7 @@
                   <c:v>-1.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.0000000000000009</c:v>
+                  <c:v>-1.0000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.90000000000000091</c:v>
@@ -1648,10 +1823,10 @@
                   <c:v>-0.60000000000000087</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.50000000000000111</c:v>
+                  <c:v>-0.50000000000000078</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.40000000000000113</c:v>
+                  <c:v>-0.40000000000000097</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-0.30000000000000104</c:v>
@@ -1660,37 +1835,37 @@
                   <c:v>-0.20000000000000112</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10000000000000092</c:v>
+                  <c:v>-0.10000000000000105</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-8.8817841970012563E-16</c:v>
+                  <c:v>-9.9920072216264148E-16</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>9.9999999999998673E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.19999999999999929</c:v>
+                  <c:v>0.19999999999999873</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.29999999999999877</c:v>
+                  <c:v>0.29999999999999921</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.39999999999999913</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.49999999999999867</c:v>
+                  <c:v>0.49999999999999922</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5999999999999992</c:v>
+                  <c:v>0.59999999999999876</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.69999999999999873</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.79999999999999938</c:v>
+                  <c:v>0.79999999999999871</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.89999999999999858</c:v>
+                  <c:v>0.89999999999999913</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.999999999999999</c:v>
@@ -1699,16 +1874,16 @@
                   <c:v>1.0999999999999985</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1999999999999988</c:v>
+                  <c:v>1.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2999999999999994</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1.5999999999999999</c:v>
@@ -1717,16 +1892,16 @@
                   <c:v>1.6999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7999999999999987</c:v>
+                  <c:v>1.7999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1.8999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9999999999999989</c:v>
+                  <c:v>1.9999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.1</c:v>
+                  <c:v>2.0999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>2.1999999999999993</c:v>
@@ -1738,10 +1913,10 @@
                   <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5000000000000013</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6000000000000014</c:v>
+                  <c:v>2.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2.6999999999999997</c:v>
@@ -1753,7 +1928,7 @@
                   <c:v>2.9000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.0000000000000031</c:v>
+                  <c:v>3.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>3.0999999999999996</c:v>
@@ -1771,13 +1946,13 @@
                   <c:v>3.5000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.5999999999999961</c:v>
+                  <c:v>3.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3.6999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.7999999999999954</c:v>
+                  <c:v>3.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>3.9000000000000021</c:v>
@@ -1792,7 +1967,7 @@
                   <c:v>4.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.2999999999999927</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>4.399999999999995</c:v>
@@ -1801,19 +1976,19 @@
                   <c:v>4.4999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.6000000000000068</c:v>
+                  <c:v>4.5999999999999961</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.6999999999999869</c:v>
+                  <c:v>4.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>4.8000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.9000000000000128</c:v>
+                  <c:v>4.8999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.9999999999999849</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,7 +2015,6 @@
         <c:axId val="2025475551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1862,7 +2036,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>p</a:t>
+                  <a:t>odds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2033,6 +2207,942 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>ln(odds)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> em função de B1 + B0*X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.1000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.2000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.80000000000000959</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.50000000000000888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.20000000000000995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9999999999990763E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39999999999999147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69999999999999218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99999999999999289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1999999999999931</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3999999999999941</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5999999999999952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7999999999999963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.6999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.8999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.6999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>21.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>24.999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.0000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.90000000000000091</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.80000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.70000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.60000000000000087</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.50000000000000078</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.40000000000000097</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.30000000000000104</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.20000000000000112</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10000000000000105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-9.9920072216264148E-16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9999999999998673E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19999999999999873</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29999999999999921</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.39999999999999913</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69999999999999873</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.79999999999999871</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89999999999999913</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.1000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.8999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EECC-459D-9180-214F9F76573D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2025475551"/>
+        <c:axId val="1807300223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2025475551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>odds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807300223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1807300223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2025475551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2390,7 +3500,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2778,7 +3888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3081,6 +4191,963 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2016205807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tentativa2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logística</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tentativa2!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tentativa2!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.9312230751356319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7425873177566781E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5858180021243546E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11920292202211755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18242552380635635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2689414213699951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37754066879814541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62245933120185459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7310585786300049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81757447619364365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88079707797788231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92414181997875655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95257412682243336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97068776924864364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5416-4F78-B6AA-1E687F08AB25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313440960"/>
+        <c:axId val="313441376"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tentativa2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tentativa2!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tentativa2!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5416-4F78-B6AA-1E687F08AB25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313440960"/>
+        <c:axId val="313441376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="313440960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313441376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="313441376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313440960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tentativa2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beta0 + Beta1*X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tentativa2!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tentativa2!$H$3:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AC2-434B-B505-BFAE9335E49C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="314843152"/>
+        <c:axId val="314839408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="314843152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314839408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="314839408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>log(odds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314843152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3336,6 +5403,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5916,20 +8103,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83531</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>86262</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>524774</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>143771</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>230039</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21563</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5958,16 +9693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28756</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>79073</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21568</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>239960</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>136582</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232773</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5989,6 +9724,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258792</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469997</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E352E346-2142-41D0-8962-65E1E19DF646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6110,6 +9883,171 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138022</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976530F4-36CF-4947-BC14-5BDFD641EC56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205186</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104132</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6749C78C-4979-436A-A13B-38D639A77982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>362311</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238063</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>115352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD41E76-F820-4144-B3DF-72FE9C4FF04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5279368" y="4485735"/>
+          <a:ext cx="7268589" cy="3686689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>474452</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>497364</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>174147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5337673-DE37-4D19-B377-B34C2002D0A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391509" y="3312543"/>
+          <a:ext cx="10926700" cy="1295581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6373,1440 +10311,2275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D103"/>
+  <dimension ref="B1:H104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="G2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.7" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>-5</v>
       </c>
-      <c r="C3">
-        <f>1/(1+EXP(-B3))</f>
-        <v>6.6928509242848554E-3</v>
-      </c>
-      <c r="D3">
-        <f>LN(C3/(1-C3))</f>
+      <c r="C4" s="5">
+        <f>EXP(B4)/(1+EXP(B4))</f>
+        <v>6.6928509242848563E-3</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/(1-C4)</f>
+        <v>6.7379469990854679E-3</v>
+      </c>
+      <c r="E4">
+        <f>LN(C4/(1-C4))</f>
         <v>-5</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>B3+0.1</f>
+      <c r="G4">
+        <f>$H$2*B4+$G$2</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>B4+0.1</f>
         <v>-4.9000000000000004</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">1/(1+EXP(-B4))</f>
+      <c r="C5" s="5">
+        <f>EXP(B5)/(1+EXP(B5))</f>
         <v>7.3915413442819707E-3</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">LN(C4/(1-C4))</f>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D68" si="0">C5/(1-C5)</f>
+        <v>7.4465830709243381E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E68" si="1">LN(C5/(1-C5))</f>
         <v>-4.9000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f t="shared" ref="B5:B68" si="2">B4+0.1</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G68" si="2">$H$2*B5+$G$2</f>
+        <v>-4.7000000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" ref="B6:B69" si="3">B5+0.1</f>
         <v>-4.8000000000000007</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="5">
+        <f>EXP(B6)/(1+EXP(B6))</f>
+        <v>8.1625711531598897E-3</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>8.1625711531598897E-3</v>
-      </c>
-      <c r="D5">
+        <v>8.2297470490200232E-3</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>-4.8000000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="G6">
         <f t="shared" si="2"/>
+        <v>-4.4000000000000021</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="3"/>
         <v>-4.7000000000000011</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="5">
+        <f>EXP(B7)/(1+EXP(B7))</f>
+        <v>9.0132986528478135E-3</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>9.0132986528478152E-3</v>
-      </c>
-      <c r="D6">
+        <v>9.0952771016958069E-3</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>-4.7000000000000011</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="G7">
         <f t="shared" si="2"/>
+        <v>-4.1000000000000032</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="3"/>
         <v>-4.6000000000000014</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="5">
+        <f>EXP(B8)/(1+EXP(B8))</f>
+        <v>9.9518018669043067E-3</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>9.9518018669043085E-3</v>
-      </c>
-      <c r="D7">
+        <v>1.0051835744633565E-2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>-4.6000000000000014</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="G8">
         <f t="shared" si="2"/>
+        <v>-3.8000000000000043</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="3"/>
         <v>-4.5000000000000018</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="5">
+        <f>EXP(B9)/(1+EXP(B9))</f>
+        <v>1.0986942630593161E-2</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>1.0986942630593162E-2</v>
-      </c>
-      <c r="D8">
+        <v>1.1108996538242287E-2</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>-4.5000000000000018</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="G9">
         <f t="shared" si="2"/>
+        <v>-3.5000000000000053</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="3"/>
         <v>-4.4000000000000021</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="5">
+        <f>EXP(B10)/(1+EXP(B10))</f>
+        <v>1.2128434984274215E-2</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>1.2128434984274213E-2</v>
-      </c>
-      <c r="D9">
+        <v>1.2277339903068415E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>-4.4000000000000021</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="G10">
         <f t="shared" si="2"/>
+        <v>-3.2000000000000064</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="3"/>
         <v>-4.3000000000000025</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="5">
+        <f>EXP(B11)/(1+EXP(B11))</f>
+        <v>1.3386917827664742E-2</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>1.3386917827664744E-2</v>
-      </c>
-      <c r="D10">
+        <v>1.3568559012200896E-2</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>-4.3000000000000025</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="G11">
         <f t="shared" si="2"/>
+        <v>-2.9000000000000075</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="3"/>
         <v>-4.2000000000000028</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="5">
+        <f>EXP(B12)/(1+EXP(B12))</f>
+        <v>1.4774031693273015E-2</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>1.4774031693273017E-2</v>
-      </c>
-      <c r="D11">
+        <v>1.4995576820477662E-2</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>-4.2000000000000028</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="G12">
         <f t="shared" si="2"/>
+        <v>-2.6000000000000085</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="3"/>
         <v>-4.1000000000000032</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="5">
+        <f>EXP(B13)/(1+EXP(B13))</f>
+        <v>1.630249937144089E-2</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>1.630249937144089E-2</v>
-      </c>
-      <c r="D12">
+        <v>1.6572675401761196E-2</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>-4.1000000000000032</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="G13">
         <f t="shared" si="2"/>
+        <v>-2.3000000000000096</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="5">
+        <f>EXP(B14)/(1+EXP(B14))</f>
+        <v>1.7986209962091493E-2</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>1.7986209962091496E-2</v>
-      </c>
-      <c r="D13">
+        <v>1.8315638888734113E-2</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>-4.0000000000000036</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="G14">
         <f t="shared" si="2"/>
+        <v>-2.0000000000000107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="3"/>
         <v>-3.9000000000000035</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="5">
+        <f>EXP(B15)/(1+EXP(B15))</f>
+        <v>1.984030573407744E-2</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>1.984030573407744E-2</v>
-      </c>
-      <c r="D14">
+        <v>2.0241911445804318E-2</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>-3.9000000000000035</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="G15">
         <f t="shared" si="2"/>
+        <v>-1.7000000000000099</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="3"/>
         <v>-3.8000000000000034</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="5">
+        <f>EXP(B16)/(1+EXP(B16))</f>
+        <v>2.1881270936130404E-2</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>2.1881270936130404E-2</v>
-      </c>
-      <c r="D15">
+        <v>2.2370771856165525E-2</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
         <v>-3.8000000000000034</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="G16">
         <f t="shared" si="2"/>
+        <v>-1.4000000000000092</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="3"/>
         <v>-3.7000000000000033</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="5">
+        <f>EXP(B17)/(1+EXP(B17))</f>
+        <v>2.412702141766912E-2</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>2.4127021417669123E-2</v>
-      </c>
-      <c r="D16">
+        <v>2.4723526470339305E-2</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
         <v>-3.7000000000000033</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="G17">
         <f t="shared" si="2"/>
+        <v>-1.1000000000000103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="3"/>
         <v>-3.6000000000000032</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="5">
+        <f>EXP(B18)/(1+EXP(B18))</f>
+        <v>2.6596993576865773E-2</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>2.6596993576865773E-2</v>
-      </c>
-      <c r="D17">
+        <v>2.7323722447292472E-2</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
         <v>-3.6000000000000032</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="G18">
         <f t="shared" si="2"/>
+        <v>-0.80000000000000959</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="3"/>
         <v>-3.5000000000000031</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="5">
+        <f>EXP(B19)/(1+EXP(B19))</f>
+        <v>2.9312230751356232E-2</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>2.9312230751356229E-2</v>
-      </c>
-      <c r="D18">
+        <v>3.0197383422318411E-2</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
         <v>-3.5000000000000031</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="G19">
         <f t="shared" si="2"/>
+        <v>-0.50000000000000888</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="3"/>
         <v>-3.400000000000003</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="5">
+        <f>EXP(B20)/(1+EXP(B20))</f>
+        <v>3.2295464698450412E-2</v>
+      </c>
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>3.2295464698450418E-2</v>
-      </c>
-      <c r="D19">
+        <v>3.3373269960325976E-2</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
         <v>-3.400000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="G20">
         <f t="shared" si="2"/>
+        <v>-0.20000000000000995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="3"/>
         <v>-3.3000000000000029</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="5">
+        <f>EXP(B21)/(1+EXP(B21))</f>
+        <v>3.557118927263607E-2</v>
+      </c>
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>3.557118927263607E-2</v>
-      </c>
-      <c r="D20">
+        <v>3.688316740123989E-2</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
         <v>-3.3000000000000029</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="G21">
         <f t="shared" si="2"/>
+        <v>9.9999999999990763E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="3"/>
         <v>-3.2000000000000028</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="5">
+        <f>EXP(B22)/(1+EXP(B22))</f>
+        <v>3.9165722796764252E-2</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>3.9165722796764252E-2</v>
-      </c>
-      <c r="D21">
+        <v>4.07622039783661E-2</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>-3.2000000000000028</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="G22">
         <f t="shared" si="2"/>
+        <v>0.39999999999999147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="3"/>
         <v>-3.1000000000000028</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="5">
+        <f>EXP(B23)/(1+EXP(B23))</f>
+        <v>4.3107254941086012E-2</v>
+      </c>
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>4.3107254941086012E-2</v>
-      </c>
-      <c r="D22">
+        <v>4.5049202393557683E-2</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>-3.1000000000000028</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="G23">
         <f t="shared" si="2"/>
+        <v>0.69999999999999218</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="3"/>
         <v>-3.0000000000000027</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="5">
+        <f>EXP(B24)/(1+EXP(B24))</f>
+        <v>4.7425873177566663E-2</v>
+      </c>
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>4.7425873177566663E-2</v>
-      </c>
-      <c r="D23">
+        <v>4.9787068367863813E-2</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>-3.0000000000000027</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="G24">
         <f t="shared" si="2"/>
+        <v>0.99999999999999289</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="3"/>
         <v>-2.9000000000000026</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="5">
+        <f>EXP(B25)/(1+EXP(B25))</f>
+        <v>5.2153563078417606E-2</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>5.2153563078417613E-2</v>
-      </c>
-      <c r="D24">
+        <v>5.5023220056407085E-2</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
         <v>-2.9000000000000026</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="G25">
         <f t="shared" si="2"/>
+        <v>1.2999999999999918</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="3"/>
         <v>-2.8000000000000025</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="5">
+        <f>EXP(B26)/(1+EXP(B26))</f>
+        <v>5.7324175898868616E-2</v>
+      </c>
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>5.732417589886861E-2</v>
-      </c>
-      <c r="D25">
+        <v>6.081006262521782E-2</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>-2.8000000000000025</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="G26">
         <f t="shared" si="2"/>
+        <v>1.5999999999999925</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="3"/>
         <v>-2.7000000000000024</v>
       </c>
-      <c r="C26">
+      <c r="C27" s="5">
+        <f>EXP(B27)/(1+EXP(B27))</f>
+        <v>6.297335605699636E-2</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>6.2973356056996346E-2</v>
-      </c>
-      <c r="D26">
+        <v>6.7205512739749618E-2</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>-2.7000000000000024</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="G27">
         <f t="shared" si="2"/>
+        <v>1.8999999999999932</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="3"/>
         <v>-2.6000000000000023</v>
       </c>
-      <c r="C27">
+      <c r="C28" s="5">
+        <f>EXP(B28)/(1+EXP(B28))</f>
+        <v>6.9138420343346663E-2</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>6.9138420343346663E-2</v>
-      </c>
-      <c r="D27">
+        <v>7.427357821433371E-2</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
         <v>-2.6000000000000023</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="G28">
         <f t="shared" si="2"/>
+        <v>2.1999999999999931</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="3"/>
         <v>-2.5000000000000022</v>
       </c>
-      <c r="C28">
+      <c r="C29" s="5">
+        <f>EXP(B29)/(1+EXP(B29))</f>
+        <v>7.5858180021243393E-2</v>
+      </c>
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>7.5858180021243393E-2</v>
-      </c>
-      <c r="D28">
+        <v>8.208499862389862E-2</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
         <v>-2.5000000000000022</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="G29">
         <f t="shared" si="2"/>
+        <v>2.4999999999999929</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="3"/>
         <v>-2.4000000000000021</v>
       </c>
-      <c r="C29">
+      <c r="C30" s="5">
+        <f>EXP(B30)/(1+EXP(B30))</f>
+        <v>8.3172696493922213E-2</v>
+      </c>
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>8.3172696493922213E-2</v>
-      </c>
-      <c r="D29">
+        <v>9.0717953289412318E-2</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
         <v>-2.4000000000000021</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="G30">
         <f t="shared" si="2"/>
+        <v>2.7999999999999936</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="3"/>
         <v>-2.300000000000002</v>
       </c>
-      <c r="C30">
+      <c r="C31" s="5">
+        <f>EXP(B31)/(1+EXP(B31))</f>
+        <v>9.1122961014855952E-2</v>
+      </c>
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>9.1122961014855966E-2</v>
-      </c>
-      <c r="D30">
+        <v>0.10025884372280351</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
         <v>-2.300000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="G31">
         <f t="shared" si="2"/>
+        <v>3.0999999999999943</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="3"/>
         <v>-2.200000000000002</v>
       </c>
-      <c r="C31">
+      <c r="C32" s="5">
+        <f>EXP(B32)/(1+EXP(B32))</f>
+        <v>9.9750489119684968E-2</v>
+      </c>
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>9.9750489119684982E-2</v>
-      </c>
-      <c r="D31">
+        <v>0.11080315836233366</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>-2.200000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="G32">
         <f t="shared" si="2"/>
+        <v>3.3999999999999941</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="3"/>
         <v>-2.1000000000000019</v>
       </c>
-      <c r="C32">
+      <c r="C33" s="5">
+        <f>EXP(B33)/(1+EXP(B33))</f>
+        <v>0.10909682119561276</v>
+      </c>
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>0.10909682119561274</v>
-      </c>
-      <c r="D32">
+        <v>0.12245642825298167</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
         <v>-2.1000000000000019</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="G33">
         <f t="shared" si="2"/>
+        <v>3.699999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018</v>
       </c>
-      <c r="C33">
+      <c r="C34" s="5">
+        <f>EXP(B34)/(1+EXP(B34))</f>
+        <v>0.11920292202211738</v>
+      </c>
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>0.11920292202211738</v>
-      </c>
-      <c r="D33">
+        <v>0.13533528323661245</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="1"/>
         <v>-2.0000000000000018</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="G34">
         <f t="shared" si="2"/>
+        <v>3.9999999999999947</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="3"/>
         <v>-1.9000000000000017</v>
       </c>
-      <c r="C34">
+      <c r="C35" s="5">
+        <f>EXP(B35)/(1+EXP(B35))</f>
+        <v>0.13010847436299766</v>
+      </c>
+      <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>0.13010847436299766</v>
-      </c>
-      <c r="D34">
+        <v>0.14956861922263481</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>-1.9000000000000017</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="G35">
         <f t="shared" si="2"/>
+        <v>4.2999999999999954</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="3"/>
         <v>-1.8000000000000016</v>
       </c>
-      <c r="C35">
+      <c r="C36" s="5">
+        <f>EXP(B36)/(1+EXP(B36))</f>
+        <v>0.1418510649004876</v>
+      </c>
+      <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>0.1418510649004876</v>
-      </c>
-      <c r="D35">
+        <v>0.16529888822158628</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>-1.8000000000000016</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="G36">
         <f t="shared" si="2"/>
+        <v>4.5999999999999952</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="3"/>
         <v>-1.7000000000000015</v>
       </c>
-      <c r="C36">
+      <c r="C37" s="5">
+        <f>EXP(B37)/(1+EXP(B37))</f>
+        <v>0.1544652650835345</v>
+      </c>
+      <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>0.1544652650835345</v>
-      </c>
-      <c r="D36">
+        <v>0.18268352405273439</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="1"/>
         <v>-1.7000000000000015</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="G37">
         <f t="shared" si="2"/>
+        <v>4.899999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="3"/>
         <v>-1.6000000000000014</v>
       </c>
-      <c r="C37">
+      <c r="C38" s="5">
+        <f>EXP(B38)/(1+EXP(B38))</f>
+        <v>0.16798161486607532</v>
+      </c>
+      <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>0.16798161486607532</v>
-      </c>
-      <c r="D37">
+        <v>0.20189651799465513</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="1"/>
         <v>-1.6000000000000014</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="G38">
         <f t="shared" si="2"/>
+        <v>5.1999999999999957</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="3"/>
         <v>-1.5000000000000013</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="5">
+        <f>EXP(B39)/(1+EXP(B39))</f>
+        <v>0.18242552380635615</v>
+      </c>
+      <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>0.18242552380635615</v>
-      </c>
-      <c r="D38">
+        <v>0.22313016014842954</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="1"/>
         <v>-1.5000000000000013</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="G39">
         <f t="shared" si="2"/>
+        <v>5.4999999999999964</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="3"/>
         <v>-1.4000000000000012</v>
       </c>
-      <c r="C39">
+      <c r="C40" s="5">
+        <f>EXP(B40)/(1+EXP(B40))</f>
+        <v>0.19781611144141806</v>
+      </c>
+      <c r="D40" s="5">
         <f t="shared" si="0"/>
-        <v>0.19781611144141806</v>
-      </c>
-      <c r="D39">
+        <v>0.24659696394160618</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="1"/>
         <v>-1.4000000000000012</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="G40">
         <f t="shared" si="2"/>
+        <v>5.7999999999999963</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="3"/>
         <v>-1.3000000000000012</v>
       </c>
-      <c r="C40">
+      <c r="C41" s="5">
+        <f>EXP(B41)/(1+EXP(B41))</f>
+        <v>0.21416501695744122</v>
+      </c>
+      <c r="D41" s="5">
         <f t="shared" si="0"/>
-        <v>0.21416501695744122</v>
-      </c>
-      <c r="D40">
+        <v>0.27253179303401232</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="1"/>
         <v>-1.3000000000000012</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="G41">
         <f t="shared" si="2"/>
+        <v>6.0999999999999961</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="3"/>
         <v>-1.2000000000000011</v>
       </c>
-      <c r="C41">
+      <c r="C42" s="5">
+        <f>EXP(B42)/(1+EXP(B42))</f>
+        <v>0.23147521650098216</v>
+      </c>
+      <c r="D42" s="5">
         <f t="shared" si="0"/>
-        <v>0.23147521650098218</v>
-      </c>
-      <c r="D41">
+        <v>0.30119421191220175</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>-1.2000000000000011</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="G42">
         <f t="shared" si="2"/>
+        <v>6.3999999999999968</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="3"/>
         <v>-1.100000000000001</v>
       </c>
-      <c r="C42">
+      <c r="C43" s="5">
+        <f>EXP(B43)/(1+EXP(B43))</f>
+        <v>0.2497398944048822</v>
+      </c>
+      <c r="D43" s="5">
         <f t="shared" si="0"/>
-        <v>0.24973989440488223</v>
-      </c>
-      <c r="D42">
+        <v>0.33287108369807922</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>-1.100000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="G43">
         <f t="shared" si="2"/>
+        <v>6.6999999999999975</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="3"/>
         <v>-1.0000000000000009</v>
       </c>
-      <c r="C43">
+      <c r="C44" s="5">
+        <f>EXP(B44)/(1+EXP(B44))</f>
+        <v>0.26894142136999499</v>
+      </c>
+      <c r="D44" s="5">
         <f t="shared" si="0"/>
-        <v>0.26894142136999494</v>
-      </c>
-      <c r="D43">
+        <v>0.36787944117144206</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44">
+        <v>-1.0000000000000007</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="2"/>
+        <v>6.9999999999999973</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="3"/>
         <v>-0.90000000000000091</v>
       </c>
-      <c r="C44">
+      <c r="C45" s="5">
+        <f>EXP(B45)/(1+EXP(B45))</f>
+        <v>0.28905049737499583</v>
+      </c>
+      <c r="D45" s="5">
         <f t="shared" si="0"/>
-        <v>0.28905049737499583</v>
-      </c>
-      <c r="D44">
+        <v>0.40656965974059872</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>-0.90000000000000091</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="G45">
         <f t="shared" si="2"/>
+        <v>7.2999999999999972</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="3"/>
         <v>-0.80000000000000093</v>
       </c>
-      <c r="C45">
+      <c r="C46" s="5">
+        <f>EXP(B46)/(1+EXP(B46))</f>
+        <v>0.31002551887238738</v>
+      </c>
+      <c r="D46" s="5">
         <f t="shared" si="0"/>
-        <v>0.31002551887238738</v>
-      </c>
-      <c r="D45">
+        <v>0.44932896411722123</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>-0.80000000000000082</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="G46">
         <f t="shared" si="2"/>
+        <v>7.599999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="3"/>
         <v>-0.70000000000000095</v>
       </c>
-      <c r="C46">
+      <c r="C47" s="5">
+        <f>EXP(B47)/(1+EXP(B47))</f>
+        <v>0.33181222783183367</v>
+      </c>
+      <c r="D47" s="5">
         <f t="shared" si="0"/>
-        <v>0.33181222783183367</v>
-      </c>
-      <c r="D46">
+        <v>0.49658530379140897</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="1"/>
         <v>-0.70000000000000107</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="G47">
         <f t="shared" si="2"/>
+        <v>7.8999999999999968</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="3"/>
         <v>-0.60000000000000098</v>
       </c>
-      <c r="C47">
+      <c r="C48" s="5">
+        <f>EXP(B48)/(1+EXP(B48))</f>
+        <v>0.35434369377420433</v>
+      </c>
+      <c r="D48" s="5">
         <f t="shared" si="0"/>
-        <v>0.35434369377420433</v>
-      </c>
-      <c r="D47">
+        <v>0.54881163609402595</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="1"/>
         <v>-0.60000000000000087</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="G48">
         <f t="shared" si="2"/>
+        <v>8.1999999999999975</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="3"/>
         <v>-0.500000000000001</v>
       </c>
-      <c r="C48">
+      <c r="C49" s="5">
+        <f>EXP(B49)/(1+EXP(B49))</f>
+        <v>0.37754066879814524</v>
+      </c>
+      <c r="D49" s="5">
         <f t="shared" si="0"/>
-        <v>0.37754066879814518</v>
-      </c>
-      <c r="D48">
+        <v>0.60653065971263298</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="1"/>
-        <v>-0.50000000000000111</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49">
+        <v>-0.50000000000000078</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="2"/>
+        <v>8.4999999999999964</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="3"/>
         <v>-0.40000000000000102</v>
       </c>
-      <c r="C49">
+      <c r="C50" s="5">
+        <f>EXP(B50)/(1+EXP(B50))</f>
+        <v>0.40131233988754778</v>
+      </c>
+      <c r="D50" s="5">
         <f t="shared" si="0"/>
-        <v>0.40131233988754772</v>
-      </c>
-      <c r="D49">
+        <v>0.67032004603563866</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="1"/>
-        <v>-0.40000000000000113</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
+        <v>-0.40000000000000097</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="2"/>
+        <v>8.7999999999999972</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="3"/>
         <v>-0.30000000000000104</v>
       </c>
-      <c r="C50">
+      <c r="C51" s="5">
+        <f>EXP(B51)/(1+EXP(B51))</f>
+        <v>0.42555748318834075</v>
+      </c>
+      <c r="D51" s="5">
         <f t="shared" si="0"/>
-        <v>0.42555748318834075</v>
-      </c>
-      <c r="D50">
+        <v>0.7408182206817171</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="1"/>
         <v>-0.30000000000000104</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="G51">
         <f t="shared" si="2"/>
+        <v>9.0999999999999961</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="3"/>
         <v>-0.20000000000000104</v>
       </c>
-      <c r="C51">
+      <c r="C52" s="5">
+        <f>EXP(B52)/(1+EXP(B52))</f>
+        <v>0.45016600268752183</v>
+      </c>
+      <c r="D52" s="5">
         <f t="shared" si="0"/>
-        <v>0.45016600268752177</v>
-      </c>
-      <c r="D51">
+        <v>0.81873075307798093</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="1"/>
         <v>-0.20000000000000112</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="G52">
         <f t="shared" si="2"/>
+        <v>9.3999999999999968</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="3"/>
         <v>-0.10000000000000103</v>
       </c>
-      <c r="C52">
+      <c r="C53" s="5">
+        <f>EXP(B53)/(1+EXP(B53))</f>
+        <v>0.47502081252105977</v>
+      </c>
+      <c r="D53" s="5">
         <f t="shared" si="0"/>
-        <v>0.47502081252105982</v>
-      </c>
-      <c r="D52">
+        <v>0.90483741803595863</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="1"/>
-        <v>-0.10000000000000092</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53">
+        <v>-0.10000000000000105</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="2"/>
+        <v>9.6999999999999975</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="3"/>
         <v>-1.0269562977782698E-15</v>
       </c>
-      <c r="C53">
+      <c r="C54" s="5">
+        <f>EXP(B54)/(1+EXP(B54))</f>
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="D54" s="5">
         <f t="shared" si="0"/>
-        <v>0.49999999999999978</v>
-      </c>
-      <c r="D53">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="1"/>
-        <v>-8.8817841970012563E-16</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54">
+        <v>-9.9920072216264148E-16</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="2"/>
+        <v>9.9999999999999964</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="3"/>
         <v>9.9999999999998979E-2</v>
       </c>
-      <c r="C54">
+      <c r="C55" s="5">
+        <f>EXP(B55)/(1+EXP(B55))</f>
+        <v>0.52497918747893968</v>
+      </c>
+      <c r="D55" s="5">
         <f t="shared" si="0"/>
-        <v>0.52497918747893968</v>
-      </c>
-      <c r="D54">
+        <v>1.1051709180756462</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="1"/>
         <v>9.9999999999998673E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55">
+      <c r="G55">
         <f t="shared" si="2"/>
+        <v>10.299999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="3"/>
         <v>0.19999999999999898</v>
       </c>
-      <c r="C55">
+      <c r="C56" s="5">
+        <f>EXP(B56)/(1+EXP(B56))</f>
+        <v>0.54983399731247762</v>
+      </c>
+      <c r="D56" s="5">
         <f t="shared" si="0"/>
-        <v>0.54983399731247773</v>
-      </c>
-      <c r="D55">
+        <v>1.2214027581601683</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56">
+        <v>0.19999999999999873</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="2"/>
+        <v>10.599999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="3"/>
         <v>0.29999999999999899</v>
       </c>
-      <c r="C56">
+      <c r="C57" s="5">
+        <f>EXP(B57)/(1+EXP(B57))</f>
+        <v>0.57444251681165881</v>
+      </c>
+      <c r="D57" s="5">
         <f t="shared" si="0"/>
-        <v>0.5744425168116587</v>
-      </c>
-      <c r="D56">
+        <v>1.3498588075760021</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="1"/>
-        <v>0.29999999999999877</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57">
+        <v>0.29999999999999921</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="2"/>
+        <v>10.899999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="3"/>
         <v>0.39999999999999902</v>
       </c>
-      <c r="C57">
+      <c r="C58" s="5">
+        <f>EXP(B58)/(1+EXP(B58))</f>
+        <v>0.59868766011245178</v>
+      </c>
+      <c r="D58" s="5">
         <f t="shared" si="0"/>
-        <v>0.59868766011245178</v>
-      </c>
-      <c r="D57">
+        <v>1.491824697641269</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="1"/>
         <v>0.39999999999999913</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58">
+      <c r="G58">
         <f t="shared" si="2"/>
+        <v>11.199999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="3"/>
         <v>0.499999999999999</v>
       </c>
-      <c r="C58">
+      <c r="C59" s="5">
+        <f>EXP(B59)/(1+EXP(B59))</f>
+        <v>0.62245933120185437</v>
+      </c>
+      <c r="D59" s="5">
         <f t="shared" si="0"/>
-        <v>0.62245933120185426</v>
-      </c>
-      <c r="D58">
+        <v>1.6487212707001269</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="1"/>
-        <v>0.49999999999999867</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59">
+        <v>0.49999999999999922</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="2"/>
+        <v>11.499999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="3"/>
         <v>0.59999999999999898</v>
       </c>
-      <c r="C59">
+      <c r="C60" s="5">
+        <f>EXP(B60)/(1+EXP(B60))</f>
+        <v>0.64565630622579517</v>
+      </c>
+      <c r="D60" s="5">
         <f t="shared" si="0"/>
-        <v>0.64565630622579528</v>
-      </c>
-      <c r="D59">
+        <v>1.8221188003905067</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="1"/>
-        <v>0.5999999999999992</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60">
+        <v>0.59999999999999876</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="2"/>
+        <v>11.799999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="3"/>
         <v>0.69999999999999896</v>
       </c>
-      <c r="C60">
+      <c r="C61" s="5">
+        <f>EXP(B61)/(1+EXP(B61))</f>
+        <v>0.66818777216816583</v>
+      </c>
+      <c r="D61" s="5">
         <f t="shared" si="0"/>
-        <v>0.66818777216816583</v>
-      </c>
-      <c r="D60">
+        <v>2.013752707470474</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="1"/>
         <v>0.69999999999999873</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="G61">
         <f t="shared" si="2"/>
+        <v>12.099999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="3"/>
         <v>0.79999999999999893</v>
       </c>
-      <c r="C61">
+      <c r="C62" s="5">
+        <f>EXP(B62)/(1+EXP(B62))</f>
+        <v>0.68997448112761217</v>
+      </c>
+      <c r="D62" s="5">
         <f t="shared" si="0"/>
-        <v>0.68997448112761228</v>
-      </c>
-      <c r="D61">
+        <v>2.2255409284924648</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="1"/>
-        <v>0.79999999999999938</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62">
+        <v>0.79999999999999871</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="2"/>
+        <v>12.399999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="3"/>
         <v>0.89999999999999891</v>
       </c>
-      <c r="C62">
+      <c r="C63" s="5">
+        <f>EXP(B63)/(1+EXP(B63))</f>
+        <v>0.71094950262500378</v>
+      </c>
+      <c r="D63" s="5">
         <f t="shared" si="0"/>
-        <v>0.71094950262500367</v>
-      </c>
-      <c r="D62">
+        <v>2.4596031111569476</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="1"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63">
+        <v>0.89999999999999913</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="2"/>
+        <v>12.699999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="3"/>
         <v>0.99999999999999889</v>
       </c>
-      <c r="C63">
+      <c r="C64" s="5">
+        <f>EXP(B64)/(1+EXP(B64))</f>
+        <v>0.73105857863000467</v>
+      </c>
+      <c r="D64" s="5">
         <f t="shared" si="0"/>
-        <v>0.73105857863000467</v>
-      </c>
-      <c r="D63">
+        <v>2.7182818284590424</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="1"/>
         <v>0.999999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="G64">
         <f t="shared" si="2"/>
+        <v>12.999999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="3"/>
         <v>1.099999999999999</v>
       </c>
-      <c r="C64">
+      <c r="C65" s="5">
+        <f>EXP(B65)/(1+EXP(B65))</f>
+        <v>0.75026010559511735</v>
+      </c>
+      <c r="D65" s="5">
         <f t="shared" si="0"/>
-        <v>0.75026010559511735</v>
-      </c>
-      <c r="D64">
+        <v>3.004166023946429</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="1"/>
         <v>1.0999999999999985</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65">
+      <c r="G65">
         <f t="shared" si="2"/>
+        <v>13.299999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="3"/>
         <v>1.1999999999999991</v>
       </c>
-      <c r="C65">
+      <c r="C66" s="5">
+        <f>EXP(B66)/(1+EXP(B66))</f>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="D66" s="5">
         <f t="shared" si="0"/>
-        <v>0.76852478349901743</v>
-      </c>
-      <c r="D65">
+        <v>3.3201169227365455</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="1"/>
-        <v>1.1999999999999988</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66">
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="2"/>
+        <v>13.599999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="3"/>
         <v>1.2999999999999992</v>
       </c>
-      <c r="C66">
+      <c r="C67" s="5">
+        <f>EXP(B67)/(1+EXP(B67))</f>
+        <v>0.78583498304255861</v>
+      </c>
+      <c r="D67" s="5">
         <f t="shared" si="0"/>
-        <v>0.7858349830425585</v>
-      </c>
-      <c r="D66">
+        <v>3.669296667619244</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="1"/>
-        <v>1.2999999999999994</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67">
+        <v>1.3</v>
+      </c>
+      <c r="G67">
         <f t="shared" si="2"/>
+        <v>13.899999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="3"/>
         <v>1.3999999999999992</v>
       </c>
-      <c r="C67">
+      <c r="C68" s="5">
+        <f>EXP(B68)/(1+EXP(B68))</f>
+        <v>0.80218388855858169</v>
+      </c>
+      <c r="D68" s="5">
         <f t="shared" si="0"/>
-        <v>0.80218388855858169</v>
-      </c>
-      <c r="D67">
+        <v>4.0551999668446728</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="1"/>
         <v>1.3999999999999995</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68">
+      <c r="G68">
         <f t="shared" si="2"/>
+        <v>14.199999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="3"/>
         <v>1.4999999999999993</v>
       </c>
-      <c r="C68">
-        <f t="shared" ref="C68:C103" si="3">1/(1+EXP(-B68))</f>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D103" si="4">LN(C68/(1-C68))</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <f t="shared" ref="B69:B103" si="5">B68+0.1</f>
+      <c r="C69" s="5">
+        <f>EXP(B69)/(1+EXP(B69))</f>
+        <v>0.81757447619364354</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" ref="D69:D104" si="4">C69/(1-C69)</f>
+        <v>4.481689070338061</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E104" si="5">LN(C69/(1-C69))</f>
+        <v>1.4999999999999991</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G104" si="6">$H$2*B69+$G$2</f>
+        <v>14.499999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" ref="B70:B104" si="7">B69+0.1</f>
         <v>1.5999999999999994</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
+      <c r="C70" s="5">
+        <f>EXP(B70)/(1+EXP(B70))</f>
         <v>0.83201838513392445</v>
       </c>
-      <c r="D69">
+      <c r="D70" s="5">
         <f t="shared" si="4"/>
+        <v>4.953032424395114</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70">
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>14.799999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>1.6999999999999995</v>
+      </c>
+      <c r="C71" s="5">
+        <f>EXP(B71)/(1+EXP(B71))</f>
+        <v>0.84553473491646525</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="4"/>
+        <v>5.4739473917271981</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="5"/>
-        <v>1.6999999999999995</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
-        <v>0.84553473491646525</v>
-      </c>
-      <c r="D70">
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>15.099999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>1.7999999999999996</v>
+      </c>
+      <c r="C72" s="5">
+        <f>EXP(B72)/(1+EXP(B72))</f>
+        <v>0.85814893509951218</v>
+      </c>
+      <c r="D72" s="5">
         <f t="shared" si="4"/>
-        <v>1.6999999999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71">
+        <v>6.0496474644129448</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="5"/>
-        <v>1.7999999999999996</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>0.85814893509951207</v>
-      </c>
-      <c r="D71">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>15.399999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>1.8999999999999997</v>
+      </c>
+      <c r="C73" s="5">
+        <f>EXP(B73)/(1+EXP(B73))</f>
+        <v>0.86989152563700212</v>
+      </c>
+      <c r="D73" s="5">
         <f t="shared" si="4"/>
-        <v>1.7999999999999987</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72">
+        <v>6.6858944422792677</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="5"/>
         <v>1.8999999999999997</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
-        <v>0.86989152563700212</v>
-      </c>
-      <c r="D72">
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="C74" s="5">
+        <f>EXP(B74)/(1+EXP(B74))</f>
+        <v>0.88079707797788243</v>
+      </c>
+      <c r="D74" s="5">
         <f t="shared" si="4"/>
-        <v>1.8999999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73">
+        <v>7.3890560989306486</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="5"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="C73">
-        <f t="shared" si="3"/>
-        <v>0.88079707797788231</v>
-      </c>
-      <c r="D73">
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="C75" s="5">
+        <f>EXP(B75)/(1+EXP(B75))</f>
+        <v>0.89090317880438696</v>
+      </c>
+      <c r="D75" s="5">
         <f t="shared" si="4"/>
-        <v>1.9999999999999989</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74">
+        <v>8.166169912567641</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="5"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
-        <v>0.89090317880438707</v>
-      </c>
-      <c r="D74">
+        <v>2.0999999999999988</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>16.299999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="C76" s="5">
+        <f>EXP(B76)/(1+EXP(B76))</f>
+        <v>0.9002495108803148</v>
+      </c>
+      <c r="D76" s="5">
         <f t="shared" si="4"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75">
+        <v>9.0250134994341149</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="5"/>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
-        <v>0.9002495108803148</v>
-      </c>
-      <c r="D75">
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C77" s="5">
+        <f>EXP(B77)/(1+EXP(B77))</f>
+        <v>0.90887703898514383</v>
+      </c>
+      <c r="D77" s="5">
         <f t="shared" si="4"/>
-        <v>2.1999999999999993</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76">
+        <v>9.9741824548147164</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="5"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>0.90887703898514383</v>
-      </c>
-      <c r="D76">
+        <v>2.2999999999999994</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="C78" s="5">
+        <f>EXP(B78)/(1+EXP(B78))</f>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="D78" s="5">
         <f t="shared" si="4"/>
-        <v>2.2999999999999994</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77">
+        <v>11.023176380641607</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="3"/>
-        <v>0.91682730350607766</v>
-      </c>
-      <c r="D77">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="C79" s="5">
+        <f>EXP(B79)/(1+EXP(B79))</f>
+        <v>0.92414181997875644</v>
+      </c>
+      <c r="D79" s="5">
         <f t="shared" si="4"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78">
+        <v>12.182493960703471</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="3"/>
-        <v>0.92414181997875655</v>
-      </c>
-      <c r="D78">
+      <c r="G79">
+        <f t="shared" si="6"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="C80" s="5">
+        <f>EXP(B80)/(1+EXP(B80))</f>
+        <v>0.93086157965665317</v>
+      </c>
+      <c r="D80" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000013</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79">
+        <v>13.463738035001688</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="5"/>
-        <v>2.6</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="3"/>
-        <v>0.93086157965665328</v>
-      </c>
-      <c r="D79">
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="6"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="7"/>
+        <v>2.7</v>
+      </c>
+      <c r="C81" s="5">
+        <f>EXP(B81)/(1+EXP(B81))</f>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="D81" s="5">
         <f t="shared" si="4"/>
-        <v>2.6000000000000014</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80">
+        <v>14.879731724872832</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="5"/>
-        <v>2.7</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="3"/>
-        <v>0.9370266439430035</v>
-      </c>
-      <c r="D80">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" si="7"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="C82" s="5">
+        <f>EXP(B82)/(1+EXP(B82))</f>
+        <v>0.94267582410113127</v>
+      </c>
+      <c r="D82" s="5">
         <f t="shared" si="4"/>
-        <v>2.6999999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81">
+        <v>16.444646771097055</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="5"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
-        <v>0.94267582410113127</v>
-      </c>
-      <c r="D81">
+      <c r="G82">
+        <f t="shared" si="6"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" si="7"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="C83" s="5">
+        <f>EXP(B83)/(1+EXP(B83))</f>
+        <v>0.94784643692158232</v>
+      </c>
+      <c r="D83" s="5">
         <f t="shared" si="4"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82">
+        <v>18.174145369443082</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="5"/>
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
-        <v>0.94784643692158232</v>
-      </c>
-      <c r="D82">
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="C84" s="5">
+        <f>EXP(B84)/(1+EXP(B84))</f>
+        <v>0.95257412682243325</v>
+      </c>
+      <c r="D84" s="5">
         <f t="shared" si="4"/>
-        <v>2.9000000000000012</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83">
+        <v>20.085536923187682</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="5"/>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
-        <v>0.95257412682243336</v>
-      </c>
-      <c r="D83">
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" si="7"/>
+        <v>3.1000000000000005</v>
+      </c>
+      <c r="C85" s="5">
+        <f>EXP(B85)/(1+EXP(B85))</f>
+        <v>0.95689274505891386</v>
+      </c>
+      <c r="D85" s="5">
         <f t="shared" si="4"/>
-        <v>3.0000000000000031</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84">
+        <v>22.197951281441625</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="5"/>
-        <v>3.1000000000000005</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
-        <v>0.95689274505891386</v>
-      </c>
-      <c r="D84">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="7"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="C86" s="5">
+        <f>EXP(B86)/(1+EXP(B86))</f>
+        <v>0.96083427720323566</v>
+      </c>
+      <c r="D86" s="5">
         <f t="shared" si="4"/>
-        <v>3.0999999999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85">
+        <v>24.532530197109363</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="5"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
-        <v>0.96083427720323566</v>
-      </c>
-      <c r="D85">
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="7"/>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="C87" s="5">
+        <f>EXP(B87)/(1+EXP(B87))</f>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="D87" s="5">
         <f t="shared" si="4"/>
-        <v>3.2000000000000006</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86">
+        <v>27.112638920657915</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="5"/>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="3"/>
-        <v>0.96442881072736386</v>
-      </c>
-      <c r="D86">
+        <v>3.3000000000000012</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>19.900000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="7"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="C88" s="5">
+        <f>EXP(B88)/(1+EXP(B88))</f>
+        <v>0.96770453530154954</v>
+      </c>
+      <c r="D88" s="5">
         <f t="shared" si="4"/>
-        <v>3.3000000000000012</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87">
+        <v>29.964100047397061</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="5"/>
-        <v>3.4000000000000008</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="3"/>
-        <v>0.96770453530154954</v>
-      </c>
-      <c r="D87">
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>20.200000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="7"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="C89" s="5">
+        <f>EXP(B89)/(1+EXP(B89))</f>
+        <v>0.97068776924864375</v>
+      </c>
+      <c r="D89" s="5">
         <f t="shared" si="4"/>
-        <v>3.4000000000000017</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88">
+        <v>33.115451958692397</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="5"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="3"/>
-        <v>0.97068776924864375</v>
-      </c>
-      <c r="D88">
+        <v>3.5000000000000027</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>20.500000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="7"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="C90" s="5">
+        <f>EXP(B90)/(1+EXP(B90))</f>
+        <v>0.97340300642313415</v>
+      </c>
+      <c r="D90" s="5">
         <f t="shared" si="4"/>
-        <v>3.5000000000000027</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89">
+        <v>36.598234443678002</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="5"/>
-        <v>3.600000000000001</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="3"/>
-        <v>0.97340300642313404</v>
-      </c>
-      <c r="D89">
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>20.800000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="7"/>
+        <v>3.7000000000000011</v>
+      </c>
+      <c r="C91" s="5">
+        <f>EXP(B91)/(1+EXP(B91))</f>
+        <v>0.9758729785823308</v>
+      </c>
+      <c r="D91" s="5">
         <f t="shared" si="4"/>
-        <v>3.5999999999999961</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90">
+        <v>40.447304360067385</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="5"/>
-        <v>3.7000000000000011</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="3"/>
-        <v>0.9758729785823308</v>
-      </c>
-      <c r="D90">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="7"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="C92" s="5">
+        <f>EXP(B92)/(1+EXP(B92))</f>
+        <v>0.97811872906386954</v>
+      </c>
+      <c r="D92" s="5">
         <f t="shared" si="4"/>
-        <v>3.6999999999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91">
+        <v>44.70118449330085</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="5"/>
-        <v>3.8000000000000012</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="3"/>
-        <v>0.97811872906386943</v>
-      </c>
-      <c r="D91">
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>21.400000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="7"/>
+        <v>3.9000000000000012</v>
+      </c>
+      <c r="C93" s="5">
+        <f>EXP(B93)/(1+EXP(B93))</f>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="D93" s="5">
         <f t="shared" si="4"/>
-        <v>3.7999999999999954</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92">
+        <v>49.402449105530273</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="5"/>
-        <v>3.9000000000000012</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="3"/>
-        <v>0.98015969426592253</v>
-      </c>
-      <c r="D92">
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>21.700000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="C94" s="5">
+        <f>EXP(B94)/(1+EXP(B94))</f>
+        <v>0.98201379003790845</v>
+      </c>
+      <c r="D94" s="5">
         <f t="shared" si="4"/>
-        <v>3.9000000000000021</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93">
+        <v>54.598150033144272</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="5"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="C93">
-        <f t="shared" si="3"/>
-        <v>0.98201379003790845</v>
-      </c>
-      <c r="D93">
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>22.000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="7"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="C95" s="5">
+        <f>EXP(B95)/(1+EXP(B95))</f>
+        <v>0.9836975006285591</v>
+      </c>
+      <c r="D95" s="5">
         <f t="shared" si="4"/>
-        <v>4.0000000000000009</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94">
+        <v>60.340287597362106</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="5"/>
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="3"/>
-        <v>0.9836975006285591</v>
-      </c>
-      <c r="D94">
+        <v>4.1000000000000023</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="6"/>
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="C96" s="5">
+        <f>EXP(B96)/(1+EXP(B96))</f>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="D96" s="5">
         <f t="shared" si="4"/>
-        <v>4.1000000000000023</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95">
+        <v>66.686331040925083</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="5"/>
-        <v>4.2</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="3"/>
-        <v>0.98522596830672693</v>
-      </c>
-      <c r="D95">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="6"/>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="7"/>
+        <v>4.3</v>
+      </c>
+      <c r="C97" s="5">
+        <f>EXP(B97)/(1+EXP(B97))</f>
+        <v>0.98661308217233523</v>
+      </c>
+      <c r="D97" s="5">
         <f t="shared" si="4"/>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96">
+        <v>73.699793699595844</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="3"/>
-        <v>0.98661308217233512</v>
-      </c>
-      <c r="D96">
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="6"/>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="7"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="C98" s="5">
+        <f>EXP(B98)/(1+EXP(B98))</f>
+        <v>0.98787156501572571</v>
+      </c>
+      <c r="D98" s="5">
         <f t="shared" si="4"/>
-        <v>4.2999999999999927</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97">
+        <v>81.450868664967743</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="5"/>
-        <v>4.3999999999999995</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="3"/>
-        <v>0.98787156501572571</v>
-      </c>
-      <c r="D97">
+        <v>4.399999999999995</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="6"/>
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="7"/>
+        <v>4.4999999999999991</v>
+      </c>
+      <c r="C99" s="5">
+        <f>EXP(B99)/(1+EXP(B99))</f>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="D99" s="5">
         <f t="shared" si="4"/>
-        <v>4.399999999999995</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98">
+        <v>90.01713130052174</v>
+      </c>
+      <c r="E99">
         <f t="shared" si="5"/>
         <v>4.4999999999999991</v>
       </c>
-      <c r="C98">
-        <f t="shared" si="3"/>
-        <v>0.98901305736940681</v>
-      </c>
-      <c r="D98">
+      <c r="G99">
+        <f t="shared" si="6"/>
+        <v>23.499999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999988</v>
+      </c>
+      <c r="C100" s="5">
+        <f>EXP(B100)/(1+EXP(B100))</f>
+        <v>0.99004819813309564</v>
+      </c>
+      <c r="D100" s="5">
         <f t="shared" si="4"/>
-        <v>4.4999999999999991</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99">
+        <v>99.484315641933378</v>
+      </c>
+      <c r="E100">
         <f t="shared" si="5"/>
-        <v>4.5999999999999988</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="3"/>
-        <v>0.99004819813309575</v>
-      </c>
-      <c r="D99">
+        <v>4.5999999999999961</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="6"/>
+        <v>23.799999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="7"/>
+        <v>4.6999999999999984</v>
+      </c>
+      <c r="C101" s="5">
+        <f>EXP(B101)/(1+EXP(B101))</f>
+        <v>0.99098670134715217</v>
+      </c>
+      <c r="D101" s="5">
         <f t="shared" si="4"/>
-        <v>4.6000000000000068</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100">
+        <v>109.94717245212338</v>
+      </c>
+      <c r="E101">
         <f t="shared" si="5"/>
-        <v>4.6999999999999984</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="3"/>
-        <v>0.99098670134715205</v>
-      </c>
-      <c r="D100">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="6"/>
+        <v>24.099999999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="7"/>
+        <v>4.799999999999998</v>
+      </c>
+      <c r="C102" s="5">
+        <f>EXP(B102)/(1+EXP(B102))</f>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="D102" s="5">
         <f t="shared" si="4"/>
-        <v>4.6999999999999869</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101">
+        <v>121.5104175187351</v>
+      </c>
+      <c r="E102">
         <f t="shared" si="5"/>
-        <v>4.799999999999998</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="3"/>
-        <v>0.99183742884684012</v>
-      </c>
-      <c r="D101">
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="6"/>
+        <v>24.399999999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="7"/>
+        <v>4.8999999999999977</v>
+      </c>
+      <c r="C103" s="5">
+        <f>EXP(B103)/(1+EXP(B103))</f>
+        <v>0.99260845865571801</v>
+      </c>
+      <c r="D103" s="5">
         <f t="shared" si="4"/>
-        <v>4.8000000000000016</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102">
+        <v>134.28977968493513</v>
+      </c>
+      <c r="E103">
         <f t="shared" si="5"/>
         <v>4.8999999999999977</v>
       </c>
-      <c r="C102">
-        <f t="shared" si="3"/>
-        <v>0.99260845865571812</v>
-      </c>
-      <c r="D102">
+      <c r="G103">
+        <f t="shared" si="6"/>
+        <v>24.699999999999992</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="7"/>
+        <v>4.9999999999999973</v>
+      </c>
+      <c r="C104" s="5">
+        <f>EXP(B104)/(1+EXP(B104))</f>
+        <v>0.99330714907571516</v>
+      </c>
+      <c r="D104" s="5">
         <f t="shared" si="4"/>
-        <v>4.9000000000000128</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103">
+        <v>148.41315910257688</v>
+      </c>
+      <c r="E104">
         <f t="shared" si="5"/>
-        <v>4.9999999999999973</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="3"/>
-        <v>0.99330714907571505</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="4"/>
-        <v>4.9999999999999849</v>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="6"/>
+        <v>24.999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -7820,7 +12593,7 @@
   <dimension ref="C1:T17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -8454,4 +13227,620 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E860A4-CF7A-4096-ACBA-7A5AAFCD7C58}">
+  <dimension ref="B1:S17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <f>SUMSQ(L3:L17)/COUNT(L3:L17)</f>
+        <v>9.9964752894129191E-2</v>
+      </c>
+      <c r="N1" s="18">
+        <f>SUM(N3:N17)/COUNT(N3:N17)</f>
+        <v>0.31593080735239187</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" ht="19.7" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>-4</v>
+      </c>
+      <c r="S2" s="10">
+        <v>-4.9173077300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>1/(1+EXP(-H3))</f>
+        <v>2.9312230751356319E-2</v>
+      </c>
+      <c r="G3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>$Q$2+$Q$3*G3</f>
+        <v>-3.5</v>
+      </c>
+      <c r="J3" s="17">
+        <f>IF(C3=1,E3,1-E3)</f>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="L3">
+        <f>E3-C3</f>
+        <v>2.9312230751356319E-2</v>
+      </c>
+      <c r="N3" s="18">
+        <f>IF(C3=1,-LN(E3),-LN(1-E3))</f>
+        <v>2.9750418272620607E-2</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0.65628365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">1/(1+EXP(-H4))</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G17" si="1">B4</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>$Q$2+$Q$3*G4</f>
+        <v>-3</v>
+      </c>
+      <c r="J4" s="17">
+        <f>IF(C4=1,E4,1-E4)</f>
+        <v>0.95257412682243325</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L17" si="2">E4-C4</f>
+        <v>4.7425873177566781E-2</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N17" si="3">IF(C4=1,-LN(E4),-LN(1-E4))</f>
+        <v>4.858735157374202E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B17" si="4">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f>$Q$2+$Q$3*G5</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" ref="J4:J17" si="5">IF(C5=1,E5,1-E5)</f>
+        <v>0.92414181997875644</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>7.5858180021243546E-2</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" si="3"/>
+        <v>7.8889734292549626E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.11920292202211755</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>$Q$2+$Q$3*G6</f>
+        <v>-2</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="5"/>
+        <v>0.88079707797788243</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.11920292202211755</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.12692801104297252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>$Q$2+$Q$3*G7</f>
+        <v>-1.5</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="5"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.18242552380635635</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.20141327798275241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f>$Q$2+$Q$3*G8</f>
+        <v>-1</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="5"/>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>-0.7310585786300049</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="3"/>
+        <v>1.3132616875182228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f>$Q$2+$Q$3*G9</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="5"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.47407698418010663</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f>$Q$2+$Q$3*G10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="3"/>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f>$Q$2+$Q$3*G11</f>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="5"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.9740769841801068</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f>$Q$2+$Q$3*G12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="5"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>-0.2689414213699951</v>
+      </c>
+      <c r="N12" s="18">
+        <f t="shared" si="3"/>
+        <v>0.31326168751822281</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f>$Q$2+$Q$3*G13</f>
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="5"/>
+        <v>0.81757447619364365</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>-0.18242552380635635</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="3"/>
+        <v>0.20141327798275241</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f>$Q$2+$Q$3*G14</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>-0.11920292202211769</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="3"/>
+        <v>0.12692801104297263</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.92414181997875655</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f>$Q$2+$Q$3*G15</f>
+        <v>2.5</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="5"/>
+        <v>0.92414181997875655</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>-7.5858180021243449E-2</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="3"/>
+        <v>7.8889734292549515E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <f>$Q$2+$Q$3*G16</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="5"/>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>-4.7425873177566635E-2</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" si="3"/>
+        <v>4.8587351573741909E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f>$Q$2+$Q$3*G17</f>
+        <v>3.5</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.97068776924864364</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>-2.9312230751356361E-2</v>
+      </c>
+      <c r="N17" s="18">
+        <f t="shared" si="3"/>
+        <v>2.9750418272620607E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232D4BB3-CD9D-41DB-B89F-E3E359E26838}">
+  <dimension ref="C2:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>-3.478</f>
+        <v>-3.4780000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>EXP(C2)/(1+EXP(C2))</f>
+        <v>2.9944721288787553E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/RegressaoLogistica/Logit_Sigmoid(Logistic).xlsx
+++ b/RegressaoLogistica/Logit_Sigmoid(Logistic).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\4Github\Github\RegressaoLogistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\USP\DS\01Git\07_estatistica\RegressaoLogistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EFDF00-891C-42C0-990C-FFD2EF11C600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED12BD-83C4-4EDF-96F3-8D334911CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Logistica!$S$4:$T$4</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">tentativa2!$Q$2:$Q$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">tentativa2!$T$2:$T$3</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
@@ -48,7 +48,7 @@
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Logistica!$O$1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">tentativa2!$L$1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">tentativa2!$O$1</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
@@ -74,17 +74,24 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>x</t>
   </si>
@@ -174,6 +181,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Numerador</t>
+  </si>
+  <si>
+    <t>Denominador</t>
+  </si>
+  <si>
+    <t>Exp(-Beta0+Beta1*X)</t>
   </si>
 </sst>
 </file>
@@ -4271,7 +4287,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>tentativa2!$E$2</c:f>
+              <c:f>tentativa2!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4348,54 +4364,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>tentativa2!$E$3:$E$17</c:f>
+              <c:f>tentativa2!$I$3:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.9312230751356319E-2</c:v>
+                  <c:v>0.9990889488055994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7425873177566781E-2</c:v>
+                  <c:v>0.98201379003790845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5858180021243546E-2</c:v>
+                  <c:v>0.7310585786300049</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.11920292202211755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18242552380635635</c:v>
+                  <c:v>6.6928509242848554E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2689414213699951</c:v>
+                  <c:v>3.3535013046647811E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37754066879814541</c:v>
+                  <c:v>1.6701421848095181E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>8.3152802766413209E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62245933120185459</c:v>
+                  <c:v>4.1399375473943306E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7310585786300049</c:v>
+                  <c:v>2.0611536181902037E-9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81757447619364365</c:v>
+                  <c:v>1.0261879630648827E-10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88079707797788231</c:v>
+                  <c:v>5.1090890280372213E-12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92414181997875655</c:v>
+                  <c:v>2.543665647376276E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95257412682243336</c:v>
+                  <c:v>1.2664165549094016E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97068776924864364</c:v>
+                  <c:v>6.3051167601469853E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4784,7 +4800,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tentativa2!$H$2</c:f>
+              <c:f>tentativa2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4807,7 +4823,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>tentativa2!$G$3:$G$17</c:f>
+              <c:f>tentativa2!$J$3:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4861,54 +4877,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>tentativa2!$H$3:$H$17</c:f>
+              <c:f>tentativa2!$F$3:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-3.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.5</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9887,14 +9903,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>599535</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16128</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>112143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202720</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1631156</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>138022</xdr:rowOff>
     </xdr:to>
@@ -9923,13 +9939,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>205186</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>80101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>104132</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>80100</xdr:rowOff>
@@ -9959,13 +9975,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>362311</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>51758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>238063</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>115352</xdr:rowOff>
@@ -10003,13 +10019,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>474452</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>146649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>497364</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174147</xdr:rowOff>
@@ -10317,14 +10333,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
@@ -10338,7 +10354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="G2" s="8">
         <v>10</v>
@@ -10361,12 +10377,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-5</v>
       </c>
       <c r="C4" s="5">
-        <f>EXP(B4)/(1+EXP(B4))</f>
+        <f t="shared" ref="C4:C35" si="0">EXP(B4)/(1+EXP(B4))</f>
         <v>6.6928509242848563E-3</v>
       </c>
       <c r="D4" s="5">
@@ -10382,2203 +10398,2203 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>B4+0.1</f>
         <v>-4.9000000000000004</v>
       </c>
       <c r="C5" s="5">
-        <f>EXP(B5)/(1+EXP(B5))</f>
+        <f t="shared" si="0"/>
         <v>7.3915413442819707E-3</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D68" si="0">C5/(1-C5)</f>
+        <f t="shared" ref="D5:D68" si="1">C5/(1-C5)</f>
         <v>7.4465830709243381E-3</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E68" si="1">LN(C5/(1-C5))</f>
+        <f t="shared" ref="E5:E68" si="2">LN(C5/(1-C5))</f>
         <v>-4.9000000000000004</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="2">$H$2*B5+$G$2</f>
+        <f t="shared" ref="G5:G68" si="3">$H$2*B5+$G$2</f>
         <v>-4.7000000000000011</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" ref="B6:B69" si="3">B5+0.1</f>
+        <f t="shared" ref="B6:B69" si="4">B5+0.1</f>
         <v>-4.8000000000000007</v>
       </c>
       <c r="C6" s="5">
-        <f>EXP(B6)/(1+EXP(B6))</f>
+        <f t="shared" si="0"/>
         <v>8.1625711531598897E-3</v>
       </c>
       <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>8.2297470490200232E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-4.8000000000000007</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>-4.4000000000000021</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="4"/>
+        <v>-4.7000000000000011</v>
+      </c>
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>8.2297470490200232E-3</v>
-      </c>
-      <c r="E6">
+        <v>9.0132986528478135E-3</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>-4.8000000000000007</v>
-      </c>
-      <c r="G6">
+        <v>9.0952771016958069E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>-4.7000000000000011</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>-4.1000000000000032</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="4"/>
+        <v>-4.6000000000000014</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9518018669043067E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0051835744633565E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-4.6000000000000014</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>-3.8000000000000043</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="4"/>
+        <v>-4.5000000000000018</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0986942630593161E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1108996538242287E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-4.5000000000000018</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000053</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="4"/>
+        <v>-4.4000000000000021</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2128434984274215E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2277339903068415E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="2"/>
         <v>-4.4000000000000021</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-3.2000000000000064</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="11" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>-4.3000000000000025</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3386917827664742E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3568559012200896E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>-4.3000000000000025</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>-4.7000000000000011</v>
-      </c>
-      <c r="C7" s="5">
-        <f>EXP(B7)/(1+EXP(B7))</f>
-        <v>9.0132986528478135E-3</v>
-      </c>
-      <c r="D7" s="5">
+        <v>-2.9000000000000075</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>9.0952771016958069E-3</v>
-      </c>
-      <c r="E7">
+        <v>1.4774031693273015E-2</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>-4.7000000000000011</v>
-      </c>
-      <c r="G7">
+        <v>1.4995576820477662E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-2.6000000000000085</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>-4.1000000000000032</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.630249937144089E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6572675401761196E-2</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
         <v>-4.1000000000000032</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-2.3000000000000096</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="14" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>-4.0000000000000036</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7986209962091493E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8315638888734113E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000036</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>-4.6000000000000014</v>
-      </c>
-      <c r="C8" s="5">
-        <f>EXP(B8)/(1+EXP(B8))</f>
-        <v>9.9518018669043067E-3</v>
-      </c>
-      <c r="D8" s="5">
+        <v>-2.0000000000000107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>-3.9000000000000035</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>1.0051835744633565E-2</v>
-      </c>
-      <c r="E8">
+        <v>1.984030573407744E-2</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>-4.6000000000000014</v>
-      </c>
-      <c r="G8">
+        <v>2.0241911445804318E-2</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
-        <v>-3.8000000000000043</v>
+        <v>-3.9000000000000035</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-1.7000000000000099</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="16" spans="2:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>-3.8000000000000034</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1881270936130404E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2370771856165525E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>-3.8000000000000034</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v>-4.5000000000000018</v>
-      </c>
-      <c r="C9" s="5">
-        <f>EXP(B9)/(1+EXP(B9))</f>
-        <v>1.0986942630593161E-2</v>
-      </c>
-      <c r="D9" s="5">
+        <v>-1.4000000000000092</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>-3.7000000000000033</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>1.1108996538242287E-2</v>
-      </c>
-      <c r="E9">
+        <v>2.412702141766912E-2</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>-4.5000000000000018</v>
-      </c>
-      <c r="G9">
+        <v>2.4723526470339305E-2</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="2"/>
-        <v>-3.5000000000000053</v>
+        <v>-3.7000000000000033</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000103</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="18" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>-3.6000000000000032</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6596993576865773E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7323722447292472E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>-3.6000000000000032</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v>-4.4000000000000021</v>
-      </c>
-      <c r="C10" s="5">
-        <f>EXP(B10)/(1+EXP(B10))</f>
-        <v>1.2128434984274215E-2</v>
-      </c>
-      <c r="D10" s="5">
+        <v>-0.80000000000000959</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>-3.5000000000000031</v>
+      </c>
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>1.2277339903068415E-2</v>
-      </c>
-      <c r="E10">
+        <v>2.9312230751356232E-2</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="1"/>
-        <v>-4.4000000000000021</v>
-      </c>
-      <c r="G10">
+        <v>3.0197383422318411E-2</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="2"/>
-        <v>-3.2000000000000064</v>
+        <v>-3.5000000000000031</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>-0.50000000000000888</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="20" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>-3.400000000000003</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2295464698450412E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3373269960325976E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>-3.400000000000003</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>-4.3000000000000025</v>
-      </c>
-      <c r="C11" s="5">
-        <f>EXP(B11)/(1+EXP(B11))</f>
-        <v>1.3386917827664742E-2</v>
-      </c>
-      <c r="D11" s="5">
+        <v>-0.20000000000000995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>-3.3000000000000029</v>
+      </c>
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>1.3568559012200896E-2</v>
-      </c>
-      <c r="E11">
+        <v>3.557118927263607E-2</v>
+      </c>
+      <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>-4.3000000000000025</v>
-      </c>
-      <c r="G11">
+        <v>3.688316740123989E-2</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="2"/>
-        <v>-2.9000000000000075</v>
+        <v>-3.3000000000000029</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>9.9999999999990763E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="22" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>-3.2000000000000028</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9165722796764252E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>4.07622039783661E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>-3.2000000000000028</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>-4.2000000000000028</v>
-      </c>
-      <c r="C12" s="5">
-        <f>EXP(B12)/(1+EXP(B12))</f>
-        <v>1.4774031693273015E-2</v>
-      </c>
-      <c r="D12" s="5">
+        <v>0.39999999999999147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>-3.1000000000000028</v>
+      </c>
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>1.4995576820477662E-2</v>
-      </c>
-      <c r="E12">
+        <v>4.3107254941086012E-2</v>
+      </c>
+      <c r="D23" s="5">
         <f t="shared" si="1"/>
-        <v>-4.2000000000000028</v>
-      </c>
-      <c r="G12">
+        <v>4.5049202393557683E-2</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="2"/>
-        <v>-2.6000000000000085</v>
+        <v>-3.1000000000000028</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.69999999999999218</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="24" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>-3.0000000000000027</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7425873177566663E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9787068367863813E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="3"/>
-        <v>-4.1000000000000032</v>
-      </c>
-      <c r="C13" s="5">
-        <f>EXP(B13)/(1+EXP(B13))</f>
-        <v>1.630249937144089E-2</v>
-      </c>
-      <c r="D13" s="5">
+        <v>0.99999999999999289</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>-2.9000000000000026</v>
+      </c>
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>1.6572675401761196E-2</v>
-      </c>
-      <c r="E13">
+        <v>5.2153563078417606E-2</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" si="1"/>
-        <v>-4.1000000000000032</v>
-      </c>
-      <c r="G13">
+        <v>5.5023220056407085E-2</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="2"/>
-        <v>-2.3000000000000096</v>
+        <v>-2.9000000000000026</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999918</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="26" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>-2.8000000000000025</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7324175898868616E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>6.081006262521782E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>-2.8000000000000025</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="3"/>
-        <v>-4.0000000000000036</v>
-      </c>
-      <c r="C14" s="5">
-        <f>EXP(B14)/(1+EXP(B14))</f>
-        <v>1.7986209962091493E-2</v>
-      </c>
-      <c r="D14" s="5">
+        <v>1.5999999999999925</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>-2.7000000000000024</v>
+      </c>
+      <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>1.8315638888734113E-2</v>
-      </c>
-      <c r="E14">
+        <v>6.297335605699636E-2</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="1"/>
-        <v>-4.0000000000000036</v>
-      </c>
-      <c r="G14">
+        <v>6.7205512739749618E-2</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="2"/>
-        <v>-2.0000000000000107</v>
+        <v>-2.7000000000000024</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>1.8999999999999932</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="28" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>-2.6000000000000023</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9138420343346663E-2</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>7.427357821433371E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>-2.6000000000000023</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="3"/>
-        <v>-3.9000000000000035</v>
-      </c>
-      <c r="C15" s="5">
-        <f>EXP(B15)/(1+EXP(B15))</f>
-        <v>1.984030573407744E-2</v>
-      </c>
-      <c r="D15" s="5">
+        <v>2.1999999999999931</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>-2.5000000000000022</v>
+      </c>
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>2.0241911445804318E-2</v>
-      </c>
-      <c r="E15">
+        <v>7.5858180021243393E-2</v>
+      </c>
+      <c r="D29" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9000000000000035</v>
-      </c>
-      <c r="G15">
+        <v>8.208499862389862E-2</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="2"/>
-        <v>-1.7000000000000099</v>
+        <v>-2.5000000000000022</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>2.4999999999999929</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="30" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>-2.4000000000000021</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>8.3172696493922213E-2</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>9.0717953289412318E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>-2.4000000000000021</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="3"/>
-        <v>-3.8000000000000034</v>
-      </c>
-      <c r="C16" s="5">
-        <f>EXP(B16)/(1+EXP(B16))</f>
-        <v>2.1881270936130404E-2</v>
-      </c>
-      <c r="D16" s="5">
+        <v>2.7999999999999936</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>-2.300000000000002</v>
+      </c>
+      <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>2.2370771856165525E-2</v>
-      </c>
-      <c r="E16">
+        <v>9.1122961014855952E-2</v>
+      </c>
+      <c r="D31" s="5">
         <f t="shared" si="1"/>
-        <v>-3.8000000000000034</v>
-      </c>
-      <c r="G16">
+        <v>0.10025884372280351</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="2"/>
-        <v>-1.4000000000000092</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17">
+        <v>-2.300000000000002</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="3"/>
-        <v>-3.7000000000000033</v>
-      </c>
-      <c r="C17" s="5">
-        <f>EXP(B17)/(1+EXP(B17))</f>
-        <v>2.412702141766912E-2</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4723526470339305E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-3.7000000000000033</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>-1.1000000000000103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f t="shared" si="3"/>
-        <v>-3.6000000000000032</v>
-      </c>
-      <c r="C18" s="5">
-        <f>EXP(B18)/(1+EXP(B18))</f>
-        <v>2.6596993576865773E-2</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7323722447292472E-2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>-3.6000000000000032</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>-0.80000000000000959</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f t="shared" si="3"/>
-        <v>-3.5000000000000031</v>
-      </c>
-      <c r="C19" s="5">
-        <f>EXP(B19)/(1+EXP(B19))</f>
-        <v>2.9312230751356232E-2</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>3.0197383422318411E-2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-3.5000000000000031</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>-0.50000000000000888</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f t="shared" si="3"/>
-        <v>-3.400000000000003</v>
-      </c>
-      <c r="C20" s="5">
-        <f>EXP(B20)/(1+EXP(B20))</f>
-        <v>3.2295464698450412E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>3.3373269960325976E-2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>-3.400000000000003</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>-0.20000000000000995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f t="shared" si="3"/>
-        <v>-3.3000000000000029</v>
-      </c>
-      <c r="C21" s="5">
-        <f>EXP(B21)/(1+EXP(B21))</f>
-        <v>3.557118927263607E-2</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>3.688316740123989E-2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-3.3000000000000029</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>9.9999999999990763E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f t="shared" si="3"/>
-        <v>-3.2000000000000028</v>
-      </c>
-      <c r="C22" s="5">
-        <f>EXP(B22)/(1+EXP(B22))</f>
-        <v>3.9165722796764252E-2</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>4.07622039783661E-2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-3.2000000000000028</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>0.39999999999999147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f t="shared" si="3"/>
-        <v>-3.1000000000000028</v>
-      </c>
-      <c r="C23" s="5">
-        <f>EXP(B23)/(1+EXP(B23))</f>
-        <v>4.3107254941086012E-2</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5049202393557683E-2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>-3.1000000000000028</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>0.69999999999999218</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f t="shared" si="3"/>
-        <v>-3.0000000000000027</v>
-      </c>
-      <c r="C24" s="5">
-        <f>EXP(B24)/(1+EXP(B24))</f>
-        <v>4.7425873177566663E-2</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>4.9787068367863813E-2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-3.0000000000000027</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>0.99999999999999289</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f t="shared" si="3"/>
-        <v>-2.9000000000000026</v>
-      </c>
-      <c r="C25" s="5">
-        <f>EXP(B25)/(1+EXP(B25))</f>
-        <v>5.2153563078417606E-2</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>5.5023220056407085E-2</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-2.9000000000000026</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1.2999999999999918</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f t="shared" si="3"/>
-        <v>-2.8000000000000025</v>
-      </c>
-      <c r="C26" s="5">
-        <f>EXP(B26)/(1+EXP(B26))</f>
-        <v>5.7324175898868616E-2</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>6.081006262521782E-2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>-2.8000000000000025</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1.5999999999999925</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f t="shared" si="3"/>
-        <v>-2.7000000000000024</v>
-      </c>
-      <c r="C27" s="5">
-        <f>EXP(B27)/(1+EXP(B27))</f>
-        <v>6.297335605699636E-2</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>6.7205512739749618E-2</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>-2.7000000000000024</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>1.8999999999999932</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f t="shared" si="3"/>
-        <v>-2.6000000000000023</v>
-      </c>
-      <c r="C28" s="5">
-        <f>EXP(B28)/(1+EXP(B28))</f>
-        <v>6.9138420343346663E-2</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>7.427357821433371E-2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>-2.6000000000000023</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>2.1999999999999931</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f t="shared" si="3"/>
-        <v>-2.5000000000000022</v>
-      </c>
-      <c r="C29" s="5">
-        <f>EXP(B29)/(1+EXP(B29))</f>
-        <v>7.5858180021243393E-2</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>8.208499862389862E-2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>-2.5000000000000022</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>2.4999999999999929</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f t="shared" si="3"/>
-        <v>-2.4000000000000021</v>
-      </c>
-      <c r="C30" s="5">
-        <f>EXP(B30)/(1+EXP(B30))</f>
-        <v>8.3172696493922213E-2</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>9.0717953289412318E-2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>-2.4000000000000021</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>2.7999999999999936</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f t="shared" si="3"/>
-        <v>-2.300000000000002</v>
-      </c>
-      <c r="C31" s="5">
-        <f>EXP(B31)/(1+EXP(B31))</f>
-        <v>9.1122961014855952E-2</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.10025884372280351</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>-2.300000000000002</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
         <v>3.0999999999999943</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
+        <f t="shared" si="4"/>
+        <v>-2.200000000000002</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9750489119684968E-2</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11080315836233366</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>-2.200000000000002</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="3"/>
-        <v>-2.200000000000002</v>
-      </c>
-      <c r="C32" s="5">
-        <f>EXP(B32)/(1+EXP(B32))</f>
-        <v>9.9750489119684968E-2</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.11080315836233366</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>-2.200000000000002</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
         <v>3.3999999999999941</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
+        <f t="shared" si="4"/>
+        <v>-2.1000000000000019</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10909682119561276</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12245642825298167</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>-2.1000000000000019</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="3"/>
-        <v>-2.1000000000000019</v>
-      </c>
-      <c r="C33" s="5">
-        <f>EXP(B33)/(1+EXP(B33))</f>
-        <v>0.10909682119561276</v>
-      </c>
-      <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.12245642825298167</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>-2.1000000000000019</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
         <v>3.699999999999994</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11920292202211738</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13533528323661245</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>-2.0000000000000018</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="3"/>
-        <v>-2.0000000000000018</v>
-      </c>
-      <c r="C34" s="5">
-        <f>EXP(B34)/(1+EXP(B34))</f>
-        <v>0.11920292202211738</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13533528323661245</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>-2.0000000000000018</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
         <v>3.9999999999999947</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
+        <f t="shared" si="4"/>
+        <v>-1.9000000000000017</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13010847436299766</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14956861922263481</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>-1.9000000000000017</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="3"/>
-        <v>-1.9000000000000017</v>
-      </c>
-      <c r="C35" s="5">
-        <f>EXP(B35)/(1+EXP(B35))</f>
-        <v>0.13010847436299766</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14956861922263481</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>-1.9000000000000017</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
         <v>4.2999999999999954</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
+        <f t="shared" si="4"/>
+        <v>-1.8000000000000016</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" ref="C36:C67" si="5">EXP(B36)/(1+EXP(B36))</f>
+        <v>0.1418510649004876</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>0.16529888822158628</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>-1.8000000000000016</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="3"/>
-        <v>-1.8000000000000016</v>
-      </c>
-      <c r="C36" s="5">
-        <f>EXP(B36)/(1+EXP(B36))</f>
-        <v>0.1418510649004876</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16529888822158628</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>-1.8000000000000016</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
         <v>4.5999999999999952</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
+        <f t="shared" si="4"/>
+        <v>-1.7000000000000015</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="5"/>
+        <v>0.1544652650835345</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18268352405273439</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>-1.7000000000000015</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="3"/>
-        <v>-1.7000000000000015</v>
-      </c>
-      <c r="C37" s="5">
-        <f>EXP(B37)/(1+EXP(B37))</f>
-        <v>0.1544652650835345</v>
-      </c>
-      <c r="D37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18268352405273439</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>-1.7000000000000015</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
         <v>4.899999999999995</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
+        <f t="shared" si="4"/>
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="5"/>
+        <v>0.16798161486607532</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="1"/>
+        <v>0.20189651799465513</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="3"/>
-        <v>-1.6000000000000014</v>
-      </c>
-      <c r="C38" s="5">
-        <f>EXP(B38)/(1+EXP(B38))</f>
-        <v>0.16798161486607532</v>
-      </c>
-      <c r="D38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20189651799465513</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>-1.6000000000000014</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
         <v>5.1999999999999957</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
+        <f t="shared" si="4"/>
+        <v>-1.5000000000000013</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="5"/>
+        <v>0.18242552380635615</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22313016014842954</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>-1.5000000000000013</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="3"/>
-        <v>-1.5000000000000013</v>
-      </c>
-      <c r="C39" s="5">
-        <f>EXP(B39)/(1+EXP(B39))</f>
-        <v>0.18242552380635615</v>
-      </c>
-      <c r="D39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22313016014842954</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>-1.5000000000000013</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
         <v>5.4999999999999964</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
+        <f t="shared" si="4"/>
+        <v>-1.4000000000000012</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="5"/>
+        <v>0.19781611144141806</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24659696394160618</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>-1.4000000000000012</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="3"/>
-        <v>-1.4000000000000012</v>
-      </c>
-      <c r="C40" s="5">
-        <f>EXP(B40)/(1+EXP(B40))</f>
-        <v>0.19781611144141806</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24659696394160618</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>-1.4000000000000012</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
         <v>5.7999999999999963</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
+        <f t="shared" si="4"/>
+        <v>-1.3000000000000012</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="5"/>
+        <v>0.21416501695744122</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.27253179303401232</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>-1.3000000000000012</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="3"/>
-        <v>-1.3000000000000012</v>
-      </c>
-      <c r="C41" s="5">
-        <f>EXP(B41)/(1+EXP(B41))</f>
-        <v>0.21416501695744122</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27253179303401232</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>-1.3000000000000012</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
         <v>6.0999999999999961</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
+        <f t="shared" si="4"/>
+        <v>-1.2000000000000011</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="5"/>
+        <v>0.23147521650098216</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="1"/>
+        <v>0.30119421191220175</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>-1.2000000000000011</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="3"/>
-        <v>-1.2000000000000011</v>
-      </c>
-      <c r="C42" s="5">
-        <f>EXP(B42)/(1+EXP(B42))</f>
-        <v>0.23147521650098216</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30119421191220175</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>-1.2000000000000011</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
         <v>6.3999999999999968</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
+        <f t="shared" si="4"/>
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.2497398944048822</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33287108369807922</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="3"/>
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="C43" s="5">
-        <f>EXP(B43)/(1+EXP(B43))</f>
-        <v>0.2497398944048822</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="0"/>
-        <v>0.33287108369807922</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
         <v>6.6999999999999975</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="5"/>
+        <v>0.26894142136999499</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36787944117144206</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000007</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="3"/>
-        <v>-1.0000000000000009</v>
-      </c>
-      <c r="C44" s="5">
-        <f>EXP(B44)/(1+EXP(B44))</f>
-        <v>0.26894142136999499</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" si="0"/>
-        <v>0.36787944117144206</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>-1.0000000000000007</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
         <v>6.9999999999999973</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
+        <f t="shared" si="4"/>
+        <v>-0.90000000000000091</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="5"/>
+        <v>0.28905049737499583</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40656965974059872</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>-0.90000000000000091</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="3"/>
-        <v>-0.90000000000000091</v>
-      </c>
-      <c r="C45" s="5">
-        <f>EXP(B45)/(1+EXP(B45))</f>
-        <v>0.28905049737499583</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" si="0"/>
-        <v>0.40656965974059872</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>-0.90000000000000091</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
         <v>7.2999999999999972</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
+        <f t="shared" si="4"/>
+        <v>-0.80000000000000093</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="5"/>
+        <v>0.31002551887238738</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44932896411722123</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>-0.80000000000000082</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="3"/>
-        <v>-0.80000000000000093</v>
-      </c>
-      <c r="C46" s="5">
-        <f>EXP(B46)/(1+EXP(B46))</f>
-        <v>0.31002551887238738</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44932896411722123</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>-0.80000000000000082</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
         <v>7.599999999999997</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
+        <f t="shared" si="4"/>
+        <v>-0.70000000000000095</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="5"/>
+        <v>0.33181222783183367</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49658530379140897</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>-0.70000000000000107</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="3"/>
-        <v>-0.70000000000000095</v>
-      </c>
-      <c r="C47" s="5">
-        <f>EXP(B47)/(1+EXP(B47))</f>
-        <v>0.33181222783183367</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="0"/>
-        <v>0.49658530379140897</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>-0.70000000000000107</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
         <v>7.8999999999999968</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
+        <f t="shared" si="4"/>
+        <v>-0.60000000000000098</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="5"/>
+        <v>0.35434369377420433</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="1"/>
+        <v>0.54881163609402595</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>-0.60000000000000087</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="3"/>
-        <v>-0.60000000000000098</v>
-      </c>
-      <c r="C48" s="5">
-        <f>EXP(B48)/(1+EXP(B48))</f>
-        <v>0.35434369377420433</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" si="0"/>
-        <v>0.54881163609402595</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>-0.60000000000000087</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
         <v>8.1999999999999975</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
+        <f t="shared" si="4"/>
+        <v>-0.500000000000001</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="5"/>
+        <v>0.37754066879814524</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="1"/>
+        <v>0.60653065971263298</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>-0.50000000000000078</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="3"/>
-        <v>-0.500000000000001</v>
-      </c>
-      <c r="C49" s="5">
-        <f>EXP(B49)/(1+EXP(B49))</f>
-        <v>0.37754066879814524</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="0"/>
-        <v>0.60653065971263298</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>-0.50000000000000078</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
         <v>8.4999999999999964</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
+        <f t="shared" si="4"/>
+        <v>-0.40000000000000102</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="5"/>
+        <v>0.40131233988754778</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="1"/>
+        <v>0.67032004603563866</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000097</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="3"/>
-        <v>-0.40000000000000102</v>
-      </c>
-      <c r="C50" s="5">
-        <f>EXP(B50)/(1+EXP(B50))</f>
-        <v>0.40131233988754778</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67032004603563866</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>-0.40000000000000097</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
         <v>8.7999999999999972</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
+        <f t="shared" si="4"/>
+        <v>-0.30000000000000104</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="5"/>
+        <v>0.42555748318834075</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="1"/>
+        <v>0.7408182206817171</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>-0.30000000000000104</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="3"/>
-        <v>-0.30000000000000104</v>
-      </c>
-      <c r="C51" s="5">
-        <f>EXP(B51)/(1+EXP(B51))</f>
-        <v>0.42555748318834075</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="0"/>
-        <v>0.7408182206817171</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>-0.30000000000000104</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
         <v>9.0999999999999961</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
+        <f t="shared" si="4"/>
+        <v>-0.20000000000000104</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="5"/>
+        <v>0.45016600268752183</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="1"/>
+        <v>0.81873075307798093</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000112</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="3"/>
-        <v>-0.20000000000000104</v>
-      </c>
-      <c r="C52" s="5">
-        <f>EXP(B52)/(1+EXP(B52))</f>
-        <v>0.45016600268752183</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="0"/>
-        <v>0.81873075307798093</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000112</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
         <v>9.3999999999999968</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
+        <f t="shared" si="4"/>
+        <v>-0.10000000000000103</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="5"/>
+        <v>0.47502081252105977</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="1"/>
+        <v>0.90483741803595863</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000105</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="3"/>
-        <v>-0.10000000000000103</v>
-      </c>
-      <c r="C53" s="5">
-        <f>EXP(B53)/(1+EXP(B53))</f>
-        <v>0.47502081252105977</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="0"/>
-        <v>0.90483741803595863</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>-0.10000000000000105</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
         <v>9.6999999999999975</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
+        <f t="shared" si="4"/>
+        <v>-1.0269562977782698E-15</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="5"/>
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="1"/>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>-9.9920072216264148E-16</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="3"/>
-        <v>-1.0269562977782698E-15</v>
-      </c>
-      <c r="C54" s="5">
-        <f>EXP(B54)/(1+EXP(B54))</f>
-        <v>0.49999999999999972</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="0"/>
-        <v>0.999999999999999</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>-9.9920072216264148E-16</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
         <v>9.9999999999999964</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
+        <f t="shared" si="4"/>
+        <v>9.9999999999998979E-2</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="5"/>
+        <v>0.52497918747893968</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1051709180756462</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>9.9999999999998673E-2</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="3"/>
-        <v>9.9999999999998979E-2</v>
-      </c>
-      <c r="C55" s="5">
-        <f>EXP(B55)/(1+EXP(B55))</f>
-        <v>0.52497918747893968</v>
-      </c>
-      <c r="D55" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1051709180756462</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>9.9999999999998673E-2</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
         <v>10.299999999999997</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999898</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="5"/>
+        <v>0.54983399731247762</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2214027581601683</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999873</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="3"/>
-        <v>0.19999999999999898</v>
-      </c>
-      <c r="C56" s="5">
-        <f>EXP(B56)/(1+EXP(B56))</f>
-        <v>0.54983399731247762</v>
-      </c>
-      <c r="D56" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2214027581601683</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999873</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
         <v>10.599999999999998</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
+        <f t="shared" si="4"/>
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="5"/>
+        <v>0.57444251681165881</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3498588075760021</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0.29999999999999921</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="3"/>
-        <v>0.29999999999999899</v>
-      </c>
-      <c r="C57" s="5">
-        <f>EXP(B57)/(1+EXP(B57))</f>
-        <v>0.57444251681165881</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3498588075760021</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0.29999999999999921</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
         <v>10.899999999999997</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="5"/>
+        <v>0.59868766011245178</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="1"/>
+        <v>1.491824697641269</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999913</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="3"/>
-        <v>0.39999999999999902</v>
-      </c>
-      <c r="C58" s="5">
-        <f>EXP(B58)/(1+EXP(B58))</f>
-        <v>0.59868766011245178</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" si="0"/>
-        <v>1.491824697641269</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0.39999999999999913</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
         <v>11.199999999999998</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
+        <f t="shared" si="4"/>
+        <v>0.499999999999999</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="5"/>
+        <v>0.62245933120185437</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6487212707001269</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999922</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="3"/>
-        <v>0.499999999999999</v>
-      </c>
-      <c r="C59" s="5">
-        <f>EXP(B59)/(1+EXP(B59))</f>
-        <v>0.62245933120185437</v>
-      </c>
-      <c r="D59" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6487212707001269</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0.49999999999999922</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
         <v>11.499999999999996</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
+        <f t="shared" si="4"/>
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="5"/>
+        <v>0.64565630622579517</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8221188003905067</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0.59999999999999876</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="3"/>
-        <v>0.59999999999999898</v>
-      </c>
-      <c r="C60" s="5">
-        <f>EXP(B60)/(1+EXP(B60))</f>
-        <v>0.64565630622579517</v>
-      </c>
-      <c r="D60" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8221188003905067</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0.59999999999999876</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
         <v>11.799999999999997</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
+        <f t="shared" si="4"/>
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="5"/>
+        <v>0.66818777216816583</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="1"/>
+        <v>2.013752707470474</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>0.69999999999999873</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="3"/>
-        <v>0.69999999999999896</v>
-      </c>
-      <c r="C61" s="5">
-        <f>EXP(B61)/(1+EXP(B61))</f>
-        <v>0.66818777216816583</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="0"/>
-        <v>2.013752707470474</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0.69999999999999873</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
         <v>12.099999999999998</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="5"/>
+        <v>0.68997448112761217</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2255409284924648</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999871</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="3"/>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="C62" s="5">
-        <f>EXP(B62)/(1+EXP(B62))</f>
-        <v>0.68997448112761217</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2255409284924648</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999871</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
         <v>12.399999999999997</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999891</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="5"/>
+        <v>0.71094950262500378</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="1"/>
+        <v>2.4596031111569476</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999913</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="3"/>
-        <v>0.89999999999999891</v>
-      </c>
-      <c r="C63" s="5">
-        <f>EXP(B63)/(1+EXP(B63))</f>
-        <v>0.71094950262500378</v>
-      </c>
-      <c r="D63" s="5">
-        <f t="shared" si="0"/>
-        <v>2.4596031111569476</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0.89999999999999913</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
         <v>12.699999999999996</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999889</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="5"/>
+        <v>0.73105857863000467</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7182818284590424</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="3"/>
-        <v>0.99999999999999889</v>
-      </c>
-      <c r="C64" s="5">
-        <f>EXP(B64)/(1+EXP(B64))</f>
-        <v>0.73105857863000467</v>
-      </c>
-      <c r="D64" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7182818284590424</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>0.999999999999999</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
         <v>12.999999999999996</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
+        <f t="shared" si="4"/>
+        <v>1.099999999999999</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="5"/>
+        <v>0.75026010559511735</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="1"/>
+        <v>3.004166023946429</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999985</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="3"/>
-        <v>1.099999999999999</v>
-      </c>
-      <c r="C65" s="5">
-        <f>EXP(B65)/(1+EXP(B65))</f>
-        <v>0.75026010559511735</v>
-      </c>
-      <c r="D65" s="5">
-        <f t="shared" si="0"/>
-        <v>3.004166023946429</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>1.0999999999999985</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
         <v>13.299999999999997</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999991</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="5"/>
+        <v>0.76852478349901754</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3201169227365455</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="3"/>
-        <v>1.1999999999999991</v>
-      </c>
-      <c r="C66" s="5">
-        <f>EXP(B66)/(1+EXP(B66))</f>
-        <v>0.76852478349901754</v>
-      </c>
-      <c r="D66" s="5">
-        <f t="shared" si="0"/>
-        <v>3.3201169227365455</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>1.1999999999999993</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
         <v>13.599999999999998</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
+        <f t="shared" si="4"/>
+        <v>1.2999999999999992</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="5"/>
+        <v>0.78583498304255861</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="1"/>
+        <v>3.669296667619244</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="G67">
         <f t="shared" si="3"/>
-        <v>1.2999999999999992</v>
-      </c>
-      <c r="C67" s="5">
-        <f>EXP(B67)/(1+EXP(B67))</f>
-        <v>0.78583498304255861</v>
-      </c>
-      <c r="D67" s="5">
-        <f t="shared" si="0"/>
-        <v>3.669296667619244</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
         <v>13.899999999999999</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999992</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" ref="C68:C99" si="6">EXP(B68)/(1+EXP(B68))</f>
+        <v>0.80218388855858169</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0551999668446728</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="3"/>
-        <v>1.3999999999999992</v>
-      </c>
-      <c r="C68" s="5">
-        <f>EXP(B68)/(1+EXP(B68))</f>
-        <v>0.80218388855858169</v>
-      </c>
-      <c r="D68" s="5">
-        <f t="shared" si="0"/>
-        <v>4.0551999668446728</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>1.3999999999999995</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
         <v>14.199999999999998</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4999999999999993</v>
       </c>
       <c r="C69" s="5">
-        <f>EXP(B69)/(1+EXP(B69))</f>
+        <f t="shared" si="6"/>
         <v>0.81757447619364354</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" ref="D69:D104" si="4">C69/(1-C69)</f>
+        <f t="shared" ref="D69:D104" si="7">C69/(1-C69)</f>
         <v>4.481689070338061</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E104" si="5">LN(C69/(1-C69))</f>
+        <f t="shared" ref="E69:E104" si="8">LN(C69/(1-C69))</f>
         <v>1.4999999999999991</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G104" si="6">$H$2*B69+$G$2</f>
+        <f t="shared" ref="G69:G104" si="9">$H$2*B69+$G$2</f>
         <v>14.499999999999998</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f t="shared" ref="B70:B104" si="7">B69+0.1</f>
+        <f t="shared" ref="B70:B104" si="10">B69+0.1</f>
         <v>1.5999999999999994</v>
       </c>
       <c r="C70" s="5">
-        <f>EXP(B70)/(1+EXP(B70))</f>
+        <f t="shared" si="6"/>
         <v>0.83201838513392445</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.953032424395114</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.799999999999997</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999995</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="6"/>
+        <v>0.84553473491646525</v>
+      </c>
+      <c r="D71" s="5">
         <f t="shared" si="7"/>
-        <v>1.6999999999999995</v>
-      </c>
-      <c r="C71" s="5">
-        <f>EXP(B71)/(1+EXP(B71))</f>
-        <v>0.84553473491646525</v>
-      </c>
-      <c r="D71" s="5">
-        <f t="shared" si="4"/>
         <v>5.4739473917271981</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.099999999999998</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
+        <f t="shared" si="10"/>
+        <v>1.7999999999999996</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="6"/>
+        <v>0.85814893509951218</v>
+      </c>
+      <c r="D72" s="5">
         <f t="shared" si="7"/>
-        <v>1.7999999999999996</v>
-      </c>
-      <c r="C72" s="5">
-        <f>EXP(B72)/(1+EXP(B72))</f>
-        <v>0.85814893509951218</v>
-      </c>
-      <c r="D72" s="5">
-        <f t="shared" si="4"/>
         <v>6.0496474644129448</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.399999999999999</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
+        <f t="shared" si="10"/>
+        <v>1.8999999999999997</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="6"/>
+        <v>0.86989152563700212</v>
+      </c>
+      <c r="D73" s="5">
         <f t="shared" si="7"/>
+        <v>6.6858944422792677</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
         <v>1.8999999999999997</v>
       </c>
-      <c r="C73" s="5">
-        <f>EXP(B73)/(1+EXP(B73))</f>
-        <v>0.86989152563700212</v>
-      </c>
-      <c r="D73" s="5">
-        <f t="shared" si="4"/>
-        <v>6.6858944422792677</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="5"/>
-        <v>1.8999999999999997</v>
-      </c>
       <c r="G73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.7</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
+        <f t="shared" si="10"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="6"/>
+        <v>0.88079707797788243</v>
+      </c>
+      <c r="D74" s="5">
         <f t="shared" si="7"/>
+        <v>7.3890560989306486</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="C74" s="5">
-        <f>EXP(B74)/(1+EXP(B74))</f>
-        <v>0.88079707797788243</v>
-      </c>
-      <c r="D74" s="5">
-        <f t="shared" si="4"/>
-        <v>7.3890560989306486</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="5"/>
-        <v>1.9999999999999998</v>
-      </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
+        <f t="shared" si="10"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="6"/>
+        <v>0.89090317880438696</v>
+      </c>
+      <c r="D75" s="5">
         <f t="shared" si="7"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="C75" s="5">
-        <f>EXP(B75)/(1+EXP(B75))</f>
-        <v>0.89090317880438696</v>
-      </c>
-      <c r="D75" s="5">
-        <f t="shared" si="4"/>
         <v>8.166169912567641</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0999999999999988</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.299999999999997</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
+        <f t="shared" si="10"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="6"/>
+        <v>0.9002495108803148</v>
+      </c>
+      <c r="D76" s="5">
         <f t="shared" si="7"/>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="C76" s="5">
-        <f>EXP(B76)/(1+EXP(B76))</f>
-        <v>0.9002495108803148</v>
-      </c>
-      <c r="D76" s="5">
-        <f t="shared" si="4"/>
         <v>9.0250134994341149</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
+        <f t="shared" si="10"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="6"/>
+        <v>0.90887703898514383</v>
+      </c>
+      <c r="D77" s="5">
         <f t="shared" si="7"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C77" s="5">
-        <f>EXP(B77)/(1+EXP(B77))</f>
-        <v>0.90887703898514383</v>
-      </c>
-      <c r="D77" s="5">
-        <f t="shared" si="4"/>
         <v>9.9741824548147164</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2999999999999994</v>
       </c>
       <c r="G77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.899999999999999</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
+        <f t="shared" si="10"/>
+        <v>2.4</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="6"/>
+        <v>0.91682730350607766</v>
+      </c>
+      <c r="D78" s="5">
         <f t="shared" si="7"/>
-        <v>2.4</v>
-      </c>
-      <c r="C78" s="5">
-        <f>EXP(B78)/(1+EXP(B78))</f>
-        <v>0.91682730350607766</v>
-      </c>
-      <c r="D78" s="5">
-        <f t="shared" si="4"/>
         <v>11.023176380641607</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="G78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17.2</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="C79" s="5">
+        <f t="shared" si="6"/>
+        <v>0.92414181997875644</v>
+      </c>
+      <c r="D79" s="5">
         <f t="shared" si="7"/>
+        <v>12.182493960703471</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
-      <c r="C79" s="5">
-        <f>EXP(B79)/(1+EXP(B79))</f>
-        <v>0.92414181997875644</v>
-      </c>
-      <c r="D79" s="5">
-        <f t="shared" si="4"/>
-        <v>12.182493960703471</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
       <c r="G79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
+        <f t="shared" si="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" si="6"/>
+        <v>0.93086157965665317</v>
+      </c>
+      <c r="D80" s="5">
         <f t="shared" si="7"/>
-        <v>2.6</v>
-      </c>
-      <c r="C80" s="5">
-        <f>EXP(B80)/(1+EXP(B80))</f>
-        <v>0.93086157965665317</v>
-      </c>
-      <c r="D80" s="5">
-        <f t="shared" si="4"/>
         <v>13.463738035001688</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="G80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17.8</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
+        <f t="shared" si="10"/>
+        <v>2.7</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" si="6"/>
+        <v>0.9370266439430035</v>
+      </c>
+      <c r="D81" s="5">
         <f t="shared" si="7"/>
-        <v>2.7</v>
-      </c>
-      <c r="C81" s="5">
-        <f>EXP(B81)/(1+EXP(B81))</f>
-        <v>0.9370266439430035</v>
-      </c>
-      <c r="D81" s="5">
-        <f t="shared" si="4"/>
         <v>14.879731724872832</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="G81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.100000000000001</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
+        <f t="shared" si="10"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" si="6"/>
+        <v>0.94267582410113127</v>
+      </c>
+      <c r="D82" s="5">
         <f t="shared" si="7"/>
+        <v>16.444646771097055</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="8"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="C82" s="5">
-        <f>EXP(B82)/(1+EXP(B82))</f>
-        <v>0.94267582410113127</v>
-      </c>
-      <c r="D82" s="5">
-        <f t="shared" si="4"/>
-        <v>16.444646771097055</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="5"/>
-        <v>2.8000000000000003</v>
-      </c>
       <c r="G82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
+        <f t="shared" si="10"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="6"/>
+        <v>0.94784643692158232</v>
+      </c>
+      <c r="D83" s="5">
         <f t="shared" si="7"/>
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="C83" s="5">
-        <f>EXP(B83)/(1+EXP(B83))</f>
-        <v>0.94784643692158232</v>
-      </c>
-      <c r="D83" s="5">
-        <f t="shared" si="4"/>
         <v>18.174145369443082</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="G83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
+        <f t="shared" si="10"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="6"/>
+        <v>0.95257412682243325</v>
+      </c>
+      <c r="D84" s="5">
         <f t="shared" si="7"/>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="C84" s="5">
-        <f>EXP(B84)/(1+EXP(B84))</f>
-        <v>0.95257412682243325</v>
-      </c>
-      <c r="D84" s="5">
-        <f t="shared" si="4"/>
         <v>20.085536923187682</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0000000000000009</v>
       </c>
       <c r="G84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
+        <f t="shared" si="10"/>
+        <v>3.1000000000000005</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="6"/>
+        <v>0.95689274505891386</v>
+      </c>
+      <c r="D85" s="5">
         <f t="shared" si="7"/>
-        <v>3.1000000000000005</v>
-      </c>
-      <c r="C85" s="5">
-        <f>EXP(B85)/(1+EXP(B85))</f>
-        <v>0.95689274505891386</v>
-      </c>
-      <c r="D85" s="5">
-        <f t="shared" si="4"/>
         <v>22.197951281441625</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0999999999999996</v>
       </c>
       <c r="G85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.3</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
+        <f t="shared" si="10"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="C86" s="5">
+        <f t="shared" si="6"/>
+        <v>0.96083427720323566</v>
+      </c>
+      <c r="D86" s="5">
         <f t="shared" si="7"/>
+        <v>24.532530197109363</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="8"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="C86" s="5">
-        <f>EXP(B86)/(1+EXP(B86))</f>
-        <v>0.96083427720323566</v>
-      </c>
-      <c r="D86" s="5">
-        <f t="shared" si="4"/>
-        <v>24.532530197109363</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="5"/>
-        <v>3.2000000000000006</v>
-      </c>
       <c r="G86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
+        <f t="shared" si="10"/>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="C87" s="5">
+        <f t="shared" si="6"/>
+        <v>0.96442881072736386</v>
+      </c>
+      <c r="D87" s="5">
         <f t="shared" si="7"/>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="C87" s="5">
-        <f>EXP(B87)/(1+EXP(B87))</f>
-        <v>0.96442881072736386</v>
-      </c>
-      <c r="D87" s="5">
-        <f t="shared" si="4"/>
         <v>27.112638920657915</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.3000000000000012</v>
       </c>
       <c r="G87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.900000000000002</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
+        <f t="shared" si="10"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="C88" s="5">
+        <f t="shared" si="6"/>
+        <v>0.96770453530154954</v>
+      </c>
+      <c r="D88" s="5">
         <f t="shared" si="7"/>
-        <v>3.4000000000000008</v>
-      </c>
-      <c r="C88" s="5">
-        <f>EXP(B88)/(1+EXP(B88))</f>
-        <v>0.96770453530154954</v>
-      </c>
-      <c r="D88" s="5">
-        <f t="shared" si="4"/>
         <v>29.964100047397061</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4000000000000017</v>
       </c>
       <c r="G88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.200000000000003</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
+        <f t="shared" si="10"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="C89" s="5">
+        <f t="shared" si="6"/>
+        <v>0.97068776924864375</v>
+      </c>
+      <c r="D89" s="5">
         <f t="shared" si="7"/>
-        <v>3.5000000000000009</v>
-      </c>
-      <c r="C89" s="5">
-        <f>EXP(B89)/(1+EXP(B89))</f>
-        <v>0.97068776924864375</v>
-      </c>
-      <c r="D89" s="5">
-        <f t="shared" si="4"/>
         <v>33.115451958692397</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.5000000000000027</v>
       </c>
       <c r="G89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.500000000000004</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
+        <f t="shared" si="10"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="C90" s="5">
+        <f t="shared" si="6"/>
+        <v>0.97340300642313415</v>
+      </c>
+      <c r="D90" s="5">
         <f t="shared" si="7"/>
-        <v>3.600000000000001</v>
-      </c>
-      <c r="C90" s="5">
-        <f>EXP(B90)/(1+EXP(B90))</f>
-        <v>0.97340300642313415</v>
-      </c>
-      <c r="D90" s="5">
-        <f t="shared" si="4"/>
         <v>36.598234443678002</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="G90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.800000000000004</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
+        <f t="shared" si="10"/>
+        <v>3.7000000000000011</v>
+      </c>
+      <c r="C91" s="5">
+        <f t="shared" si="6"/>
+        <v>0.9758729785823308</v>
+      </c>
+      <c r="D91" s="5">
         <f t="shared" si="7"/>
-        <v>3.7000000000000011</v>
-      </c>
-      <c r="C91" s="5">
-        <f>EXP(B91)/(1+EXP(B91))</f>
-        <v>0.9758729785823308</v>
-      </c>
-      <c r="D91" s="5">
-        <f t="shared" si="4"/>
         <v>40.447304360067385</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6999999999999997</v>
       </c>
       <c r="G91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.1</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
+        <f t="shared" si="10"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="C92" s="5">
+        <f t="shared" si="6"/>
+        <v>0.97811872906386954</v>
+      </c>
+      <c r="D92" s="5">
         <f t="shared" si="7"/>
-        <v>3.8000000000000012</v>
-      </c>
-      <c r="C92" s="5">
-        <f>EXP(B92)/(1+EXP(B92))</f>
-        <v>0.97811872906386954</v>
-      </c>
-      <c r="D92" s="5">
-        <f t="shared" si="4"/>
         <v>44.70118449330085</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.8000000000000007</v>
       </c>
       <c r="G92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.400000000000006</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
+        <f t="shared" si="10"/>
+        <v>3.9000000000000012</v>
+      </c>
+      <c r="C93" s="5">
+        <f t="shared" si="6"/>
+        <v>0.98015969426592253</v>
+      </c>
+      <c r="D93" s="5">
         <f t="shared" si="7"/>
-        <v>3.9000000000000012</v>
-      </c>
-      <c r="C93" s="5">
-        <f>EXP(B93)/(1+EXP(B93))</f>
-        <v>0.98015969426592253</v>
-      </c>
-      <c r="D93" s="5">
-        <f t="shared" si="4"/>
         <v>49.402449105530273</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.9000000000000021</v>
       </c>
       <c r="G93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.700000000000003</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="C94" s="5">
+        <f t="shared" si="6"/>
+        <v>0.98201379003790845</v>
+      </c>
+      <c r="D94" s="5">
         <f t="shared" si="7"/>
+        <v>54.598150033144272</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="8"/>
         <v>4.0000000000000009</v>
       </c>
-      <c r="C94" s="5">
-        <f>EXP(B94)/(1+EXP(B94))</f>
-        <v>0.98201379003790845</v>
-      </c>
-      <c r="D94" s="5">
-        <f t="shared" si="4"/>
-        <v>54.598150033144272</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000009</v>
-      </c>
       <c r="G94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.000000000000004</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
+        <f t="shared" si="10"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="C95" s="5">
+        <f t="shared" si="6"/>
+        <v>0.9836975006285591</v>
+      </c>
+      <c r="D95" s="5">
         <f t="shared" si="7"/>
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="C95" s="5">
-        <f>EXP(B95)/(1+EXP(B95))</f>
-        <v>0.9836975006285591</v>
-      </c>
-      <c r="D95" s="5">
-        <f t="shared" si="4"/>
         <v>60.340287597362106</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.1000000000000023</v>
       </c>
       <c r="G95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.3</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
+        <f t="shared" si="10"/>
+        <v>4.2</v>
+      </c>
+      <c r="C96" s="5">
+        <f t="shared" si="6"/>
+        <v>0.98522596830672693</v>
+      </c>
+      <c r="D96" s="5">
         <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
-      <c r="C96" s="5">
-        <f>EXP(B96)/(1+EXP(B96))</f>
-        <v>0.98522596830672693</v>
-      </c>
-      <c r="D96" s="5">
-        <f t="shared" si="4"/>
         <v>66.686331040925083</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="G96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.6</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
+        <f t="shared" si="10"/>
+        <v>4.3</v>
+      </c>
+      <c r="C97" s="5">
+        <f t="shared" si="6"/>
+        <v>0.98661308217233523</v>
+      </c>
+      <c r="D97" s="5">
         <f t="shared" si="7"/>
-        <v>4.3</v>
-      </c>
-      <c r="C97" s="5">
-        <f>EXP(B97)/(1+EXP(B97))</f>
-        <v>0.98661308217233523</v>
-      </c>
-      <c r="D97" s="5">
-        <f t="shared" si="4"/>
         <v>73.699793699595844</v>
       </c>
       <c r="E97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="G97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.9</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
+        <f t="shared" si="10"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="C98" s="5">
+        <f t="shared" si="6"/>
+        <v>0.98787156501572571</v>
+      </c>
+      <c r="D98" s="5">
         <f t="shared" si="7"/>
-        <v>4.3999999999999995</v>
-      </c>
-      <c r="C98" s="5">
-        <f>EXP(B98)/(1+EXP(B98))</f>
-        <v>0.98787156501572571</v>
-      </c>
-      <c r="D98" s="5">
-        <f t="shared" si="4"/>
         <v>81.450868664967743</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.399999999999995</v>
       </c>
       <c r="G98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.2</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99">
+        <f t="shared" si="10"/>
+        <v>4.4999999999999991</v>
+      </c>
+      <c r="C99" s="5">
+        <f t="shared" si="6"/>
+        <v>0.98901305736940681</v>
+      </c>
+      <c r="D99" s="5">
         <f t="shared" si="7"/>
+        <v>90.01713130052174</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
         <v>4.4999999999999991</v>
       </c>
-      <c r="C99" s="5">
-        <f>EXP(B99)/(1+EXP(B99))</f>
-        <v>0.98901305736940681</v>
-      </c>
-      <c r="D99" s="5">
-        <f t="shared" si="4"/>
-        <v>90.01713130052174</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="5"/>
-        <v>4.4999999999999991</v>
-      </c>
       <c r="G99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.499999999999996</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100">
+        <f t="shared" si="10"/>
+        <v>4.5999999999999988</v>
+      </c>
+      <c r="C100" s="5">
+        <f t="shared" ref="C100:C131" si="11">EXP(B100)/(1+EXP(B100))</f>
+        <v>0.99004819813309564</v>
+      </c>
+      <c r="D100" s="5">
         <f t="shared" si="7"/>
-        <v>4.5999999999999988</v>
-      </c>
-      <c r="C100" s="5">
-        <f>EXP(B100)/(1+EXP(B100))</f>
-        <v>0.99004819813309564</v>
-      </c>
-      <c r="D100" s="5">
-        <f t="shared" si="4"/>
         <v>99.484315641933378</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.5999999999999961</v>
       </c>
       <c r="G100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.799999999999997</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101">
+        <f t="shared" si="10"/>
+        <v>4.6999999999999984</v>
+      </c>
+      <c r="C101" s="5">
+        <f t="shared" si="11"/>
+        <v>0.99098670134715217</v>
+      </c>
+      <c r="D101" s="5">
         <f t="shared" si="7"/>
-        <v>4.6999999999999984</v>
-      </c>
-      <c r="C101" s="5">
-        <f>EXP(B101)/(1+EXP(B101))</f>
-        <v>0.99098670134715217</v>
-      </c>
-      <c r="D101" s="5">
-        <f t="shared" si="4"/>
         <v>109.94717245212338</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.099999999999994</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102">
+        <f t="shared" si="10"/>
+        <v>4.799999999999998</v>
+      </c>
+      <c r="C102" s="5">
+        <f t="shared" si="11"/>
+        <v>0.99183742884684012</v>
+      </c>
+      <c r="D102" s="5">
         <f t="shared" si="7"/>
-        <v>4.799999999999998</v>
-      </c>
-      <c r="C102" s="5">
-        <f>EXP(B102)/(1+EXP(B102))</f>
-        <v>0.99183742884684012</v>
-      </c>
-      <c r="D102" s="5">
-        <f t="shared" si="4"/>
         <v>121.5104175187351</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.8000000000000016</v>
       </c>
       <c r="G102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.399999999999995</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103">
+        <f t="shared" si="10"/>
+        <v>4.8999999999999977</v>
+      </c>
+      <c r="C103" s="5">
+        <f t="shared" si="11"/>
+        <v>0.99260845865571801</v>
+      </c>
+      <c r="D103" s="5">
         <f t="shared" si="7"/>
+        <v>134.28977968493513</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="8"/>
         <v>4.8999999999999977</v>
       </c>
-      <c r="C103" s="5">
-        <f>EXP(B103)/(1+EXP(B103))</f>
-        <v>0.99260845865571801</v>
-      </c>
-      <c r="D103" s="5">
-        <f t="shared" si="4"/>
-        <v>134.28977968493513</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="5"/>
-        <v>4.8999999999999977</v>
-      </c>
       <c r="G103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.699999999999992</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999973</v>
+      </c>
+      <c r="C104" s="5">
+        <f t="shared" si="11"/>
+        <v>0.99330714907571516</v>
+      </c>
+      <c r="D104" s="5">
         <f t="shared" si="7"/>
-        <v>4.9999999999999973</v>
-      </c>
-      <c r="C104" s="5">
-        <f>EXP(B104)/(1+EXP(B104))</f>
-        <v>0.99330714907571516</v>
-      </c>
-      <c r="D104" s="5">
-        <f t="shared" si="4"/>
         <v>148.41315910257688</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000018</v>
       </c>
       <c r="G104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.999999999999993</v>
       </c>
     </row>
@@ -12596,10 +12612,10 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13231,42 +13247,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E860A4-CF7A-4096-ACBA-7A5AAFCD7C58}">
-  <dimension ref="B1:S17"/>
+  <dimension ref="B1:V17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.375" customWidth="1"/>
-    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1">
-        <f>SUMSQ(L3:L17)/COUNT(L3:L17)</f>
-        <v>9.9964752894129191E-2</v>
-      </c>
-      <c r="N1" s="18">
-        <f>SUM(N3:N17)/COUNT(N3:N17)</f>
-        <v>0.31593080735239187</v>
-      </c>
-      <c r="S1" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1">
+        <f>SUMSQ(O3:O17)/COUNT(O3:O17)</f>
+        <v>0.70070388885298518</v>
+      </c>
+      <c r="Q1" s="18">
+        <f>SUM(Q3:Q17)/COUNT(Q3:Q17)</f>
+        <v>13.29775462829687</v>
+      </c>
+      <c r="V1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="19.7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -13274,39 +13293,48 @@
         <v>10</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="19" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="13">
-        <v>-4</v>
-      </c>
-      <c r="S2" s="10">
+      <c r="T2" s="13">
+        <v>10</v>
+      </c>
+      <c r="V2" s="10">
         <v>-4.9173077300000001</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -13314,40 +13342,51 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>1/(1+EXP(-H3))</f>
-        <v>2.9312230751356319E-2</v>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>$T$2+$T$3*J3</f>
+        <v>7</v>
       </c>
       <c r="G3">
+        <f>EXP(-F3)</f>
+        <v>9.1188196555451624E-4</v>
+      </c>
+      <c r="H3">
+        <f>1+G3</f>
+        <v>1.0009118819655545</v>
+      </c>
+      <c r="I3">
+        <f>E3/H3</f>
+        <v>0.9990889488055994</v>
+      </c>
+      <c r="J3">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="H3">
-        <f>$Q$2+$Q$3*G3</f>
-        <v>-3.5</v>
-      </c>
-      <c r="J3" s="17">
-        <f>IF(C3=1,E3,1-E3)</f>
-        <v>0.97068776924864364</v>
-      </c>
-      <c r="L3">
-        <f>E3-C3</f>
-        <v>2.9312230751356319E-2</v>
-      </c>
-      <c r="N3" s="18">
-        <f>IF(C3=1,-LN(E3),-LN(1-E3))</f>
-        <v>2.9750418272620607E-2</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="M3" s="17">
+        <f>IF(C3=1,I3,1-I3)</f>
+        <v>9.1105119440060278E-4</v>
+      </c>
+      <c r="O3">
+        <f>I3-C3</f>
+        <v>0.9990889488055994</v>
+      </c>
+      <c r="Q3" s="18">
+        <f>IF(C3=1,-LN(I3),-LN(1-I3))</f>
+        <v>7.0009114664538208</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="S3" s="10">
+      <c r="T3" s="14">
+        <v>-3</v>
+      </c>
+      <c r="V3" s="10">
         <v>0.65628365</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>B3+1</f>
         <v>2</v>
@@ -13356,31 +13395,42 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E17" si="0">1/(1+EXP(-H4))</f>
-        <v>4.7425873177566781E-2</v>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>$T$2+$T$3*J4</f>
+        <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G17" si="1">B4</f>
+        <f>EXP(-F4)</f>
+        <v>1.8315638888734179E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H17" si="0">1+G4</f>
+        <v>1.0183156388887342</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I17" si="1">E4/H4</f>
+        <v>0.98201379003790845</v>
+      </c>
+      <c r="J4">
+        <f>B4</f>
         <v>2</v>
       </c>
-      <c r="H4">
-        <f>$Q$2+$Q$3*G4</f>
-        <v>-3</v>
-      </c>
-      <c r="J4" s="17">
-        <f>IF(C4=1,E4,1-E4)</f>
-        <v>0.95257412682243325</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L17" si="2">E4-C4</f>
-        <v>4.7425873177566781E-2</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" ref="N4:N17" si="3">IF(C4=1,-LN(E4),-LN(1-E4))</f>
-        <v>4.858735157374202E-2</v>
+      <c r="M4" s="17">
+        <f>IF(C4=1,I4,1-I4)</f>
+        <v>1.7986209962091548E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O17" si="2">I4-C4</f>
+        <v>0.98201379003790845</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" ref="Q4:Q17" si="3">IF(C4=1,-LN(I4),-LN(1-I4))</f>
+        <v>4.0181499279178103</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B17" si="4">B4+1</f>
         <v>3</v>
@@ -13389,31 +13439,42 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>$T$2+$T$3*J5</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>EXP(-F5)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>7.5858180021243546E-2</v>
-      </c>
-      <c r="G5">
+        <v>1.3678794411714423</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="J5">
+        <f>B5</f>
         <v>3</v>
       </c>
-      <c r="H5">
-        <f>$Q$2+$Q$3*G5</f>
-        <v>-2.5</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" ref="J4:J17" si="5">IF(C5=1,E5,1-E5)</f>
-        <v>0.92414181997875644</v>
-      </c>
-      <c r="L5">
+      <c r="M5" s="17">
+        <f t="shared" ref="M5:M17" si="5">IF(C5=1,I5,1-I5)</f>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="2"/>
-        <v>7.5858180021243546E-2</v>
-      </c>
-      <c r="N5" s="18">
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="Q5" s="18">
         <f t="shared" si="3"/>
-        <v>7.8889734292549626E-2</v>
+        <v>1.3132616875182228</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -13422,31 +13483,42 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>$T$2+$T$3*J6</f>
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <f>EXP(-F6)</f>
+        <v>7.3890560989306504</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
+        <v>8.3890560989306504</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
         <v>0.11920292202211755</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+      <c r="J6">
+        <f>B6</f>
         <v>4</v>
       </c>
-      <c r="H6">
-        <f>$Q$2+$Q$3*G6</f>
-        <v>-2</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="M6" s="17">
         <f t="shared" si="5"/>
         <v>0.88079707797788243</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <f t="shared" si="2"/>
         <v>0.11920292202211755</v>
       </c>
-      <c r="N6" s="18">
+      <c r="Q6" s="18">
         <f t="shared" si="3"/>
         <v>0.12692801104297252</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -13455,31 +13527,42 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>$T$2+$T$3*J7</f>
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <f>EXP(-F7)</f>
+        <v>148.4131591025766</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.18242552380635635</v>
-      </c>
-      <c r="G7">
+        <v>149.4131591025766</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
+        <v>6.6928509242848554E-3</v>
+      </c>
+      <c r="J7">
+        <f>B7</f>
         <v>5</v>
       </c>
-      <c r="H7">
-        <f>$Q$2+$Q$3*G7</f>
-        <v>-1.5</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="M7" s="17">
         <f t="shared" si="5"/>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="L7">
+        <v>0.99330714907571516</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v>0.18242552380635635</v>
-      </c>
-      <c r="N7" s="18">
+        <v>6.6928509242848554E-3</v>
+      </c>
+      <c r="Q7" s="18">
         <f t="shared" si="3"/>
-        <v>0.20141327798275241</v>
+        <v>6.7153484891180563E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -13488,31 +13571,42 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>$T$2+$T$3*J8</f>
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <f>EXP(-F8)</f>
+        <v>2980.9579870417283</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.2689414213699951</v>
-      </c>
-      <c r="G8">
+        <v>2981.9579870417283</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
+        <v>3.3535013046647811E-4</v>
+      </c>
+      <c r="J8">
+        <f>B8</f>
         <v>6</v>
       </c>
-      <c r="H8">
-        <f>$Q$2+$Q$3*G8</f>
-        <v>-1</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="M8" s="17">
         <f t="shared" si="5"/>
-        <v>0.2689414213699951</v>
-      </c>
-      <c r="L8">
+        <v>3.3535013046647811E-4</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="2"/>
-        <v>-0.7310585786300049</v>
-      </c>
-      <c r="N8" s="18">
+        <v>-0.99966464986953352</v>
+      </c>
+      <c r="Q8" s="18">
         <f t="shared" si="3"/>
-        <v>1.3132616875182228</v>
+        <v>8.000335406372896</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -13521,31 +13615,42 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>$T$2+$T$3*J9</f>
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <f>EXP(-F9)</f>
+        <v>59874.141715197817</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.37754066879814541</v>
-      </c>
-      <c r="G9">
+        <v>59875.141715197817</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
+        <v>1.6701421848095181E-5</v>
+      </c>
+      <c r="J9">
+        <f>B9</f>
         <v>7</v>
       </c>
-      <c r="H9">
-        <f>$Q$2+$Q$3*G9</f>
-        <v>-0.5</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="M9" s="17">
         <f t="shared" si="5"/>
-        <v>0.62245933120185459</v>
-      </c>
-      <c r="L9">
+        <v>0.99998329857815194</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>0.37754066879814541</v>
-      </c>
-      <c r="N9" s="18">
+        <v>1.6701421848095181E-5</v>
+      </c>
+      <c r="Q9" s="18">
         <f t="shared" si="3"/>
-        <v>0.47407698418010663</v>
+        <v>1.6701561318363113E-5</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -13554,31 +13659,42 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>$T$2+$T$3*J10</f>
+        <v>-14</v>
+      </c>
+      <c r="G10">
+        <f>EXP(-F10)</f>
+        <v>1202604.2841647768</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G10">
+        <v>1202605.2841647768</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
+        <v>8.3152802766413209E-7</v>
+      </c>
+      <c r="J10">
+        <f>B10</f>
         <v>8</v>
       </c>
-      <c r="H10">
-        <f>$Q$2+$Q$3*G10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="M10" s="17">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="L10">
+        <v>8.3152802766413209E-7</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="N10" s="18">
+        <v>-0.99999916847197234</v>
+      </c>
+      <c r="Q10" s="18">
         <f t="shared" si="3"/>
-        <v>0.69314718055994529</v>
+        <v>14.000000831528373</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -13587,31 +13703,42 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>$T$2+$T$3*J11</f>
+        <v>-17</v>
+      </c>
+      <c r="G11">
+        <f>EXP(-F11)</f>
+        <v>24154952.753575299</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.62245933120185459</v>
-      </c>
-      <c r="G11">
+        <v>24154953.753575299</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
+        <v>4.1399375473943306E-8</v>
+      </c>
+      <c r="J11">
+        <f>B11</f>
         <v>9</v>
       </c>
-      <c r="H11">
-        <f>$Q$2+$Q$3*G11</f>
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="M11" s="17">
         <f t="shared" si="5"/>
-        <v>0.37754066879814541</v>
-      </c>
-      <c r="L11">
+        <v>0.99999995860062452</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="2"/>
-        <v>0.62245933120185459</v>
-      </c>
-      <c r="N11" s="18">
+        <v>4.1399375473943306E-8</v>
+      </c>
+      <c r="Q11" s="18">
         <f t="shared" si="3"/>
-        <v>0.9740769841801068</v>
+        <v>4.1399376340262803E-8</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -13620,31 +13747,42 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>$T$2+$T$3*J12</f>
+        <v>-20</v>
+      </c>
+      <c r="G12">
+        <f>EXP(-F12)</f>
+        <v>485165195.40979028</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.7310585786300049</v>
-      </c>
-      <c r="G12">
+        <v>485165196.40979028</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
+        <v>2.0611536181902037E-9</v>
+      </c>
+      <c r="J12">
+        <f>B12</f>
         <v>10</v>
       </c>
-      <c r="H12">
-        <f>$Q$2+$Q$3*G12</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="M12" s="17">
         <f t="shared" si="5"/>
-        <v>0.7310585786300049</v>
-      </c>
-      <c r="L12">
+        <v>2.0611536181902037E-9</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="2"/>
-        <v>-0.2689414213699951</v>
-      </c>
-      <c r="N12" s="18">
+        <v>-0.99999999793884642</v>
+      </c>
+      <c r="Q12" s="18">
         <f t="shared" si="3"/>
-        <v>0.31326168751822281</v>
+        <v>20.000000002061153</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -13653,31 +13791,42 @@
         <v>1</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>$T$2+$T$3*J13</f>
+        <v>-23</v>
+      </c>
+      <c r="G13">
+        <f>EXP(-F13)</f>
+        <v>9744803446.2489033</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="G13">
+        <v>9744803447.2489033</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
+        <v>1.0261879630648827E-10</v>
+      </c>
+      <c r="J13">
+        <f>B13</f>
         <v>11</v>
       </c>
-      <c r="H13">
-        <f>$Q$2+$Q$3*G13</f>
-        <v>1.5</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="M13" s="17">
         <f t="shared" si="5"/>
-        <v>0.81757447619364365</v>
-      </c>
-      <c r="L13">
+        <v>1.0261879630648827E-10</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="2"/>
-        <v>-0.18242552380635635</v>
-      </c>
-      <c r="N13" s="18">
+        <v>-0.9999999998973812</v>
+      </c>
+      <c r="Q13" s="18">
         <f t="shared" si="3"/>
-        <v>0.20141327798275241</v>
+        <v>23.00000000010262</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -13686,34 +13835,45 @@
         <v>1</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>$T$2+$T$3*J14</f>
+        <v>-26</v>
+      </c>
+      <c r="G14">
+        <f>EXP(-F14)</f>
+        <v>195729609428.83878</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
-      </c>
-      <c r="G14">
+        <v>195729609429.83878</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
+        <v>5.1090890280372213E-12</v>
+      </c>
+      <c r="J14">
+        <f>B14</f>
         <v>12</v>
       </c>
-      <c r="H14">
-        <f>$Q$2+$Q$3*G14</f>
-        <v>2</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="M14" s="17">
         <f t="shared" si="5"/>
-        <v>0.88079707797788231</v>
-      </c>
-      <c r="L14">
+        <v>5.1090890280372213E-12</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="2"/>
-        <v>-0.11920292202211769</v>
-      </c>
-      <c r="N14" s="18">
+        <v>-0.99999999999489086</v>
+      </c>
+      <c r="Q14" s="18">
         <f t="shared" si="3"/>
-        <v>0.12692801104297263</v>
-      </c>
-      <c r="O14" t="s">
+        <v>26.000000000005109</v>
+      </c>
+      <c r="R14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -13722,31 +13882,42 @@
         <v>1</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>$T$2+$T$3*J15</f>
+        <v>-29</v>
+      </c>
+      <c r="G15">
+        <f>EXP(-F15)</f>
+        <v>3931334297144.042</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.92414181997875655</v>
-      </c>
-      <c r="G15">
+        <v>3931334297145.042</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
+        <v>2.543665647376276E-13</v>
+      </c>
+      <c r="J15">
+        <f>B15</f>
         <v>13</v>
       </c>
-      <c r="H15">
-        <f>$Q$2+$Q$3*G15</f>
-        <v>2.5</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="M15" s="17">
         <f t="shared" si="5"/>
-        <v>0.92414181997875655</v>
-      </c>
-      <c r="L15">
+        <v>2.543665647376276E-13</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="2"/>
-        <v>-7.5858180021243449E-2</v>
-      </c>
-      <c r="N15" s="18">
+        <v>-0.99999999999974565</v>
+      </c>
+      <c r="Q15" s="18">
         <f t="shared" si="3"/>
-        <v>7.8889734292549515E-2</v>
+        <v>29.000000000000256</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -13755,31 +13926,42 @@
         <v>1</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>$T$2+$T$3*J16</f>
+        <v>-32</v>
+      </c>
+      <c r="G16">
+        <f>EXP(-F16)</f>
+        <v>78962960182680.688</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.95257412682243336</v>
-      </c>
-      <c r="G16">
+        <v>78962960182681.688</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
+        <v>1.2664165549094016E-14</v>
+      </c>
+      <c r="J16">
+        <f>B16</f>
         <v>14</v>
       </c>
-      <c r="H16">
-        <f>$Q$2+$Q$3*G16</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="M16" s="17">
         <f t="shared" si="5"/>
-        <v>0.95257412682243336</v>
-      </c>
-      <c r="L16">
+        <v>1.2664165549094016E-14</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="2"/>
-        <v>-4.7425873177566635E-2</v>
-      </c>
-      <c r="N16" s="18">
+        <v>-0.99999999999998734</v>
+      </c>
+      <c r="Q16" s="18">
         <f t="shared" si="3"/>
-        <v>4.8587351573741909E-2</v>
+        <v>32.000000000000014</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -13788,33 +13970,45 @@
         <v>1</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>$T$2+$T$3*J17</f>
+        <v>-35</v>
+      </c>
+      <c r="G17">
+        <f>EXP(-F17)</f>
+        <v>1586013452313430.8</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.97068776924864364</v>
-      </c>
-      <c r="G17">
+        <v>1586013452313431.8</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="1"/>
+        <v>6.3051167601469853E-16</v>
+      </c>
+      <c r="J17">
+        <f>B17</f>
         <v>15</v>
       </c>
-      <c r="H17">
-        <f>$Q$2+$Q$3*G17</f>
-        <v>3.5</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="M17" s="17">
         <f t="shared" si="5"/>
-        <v>0.97068776924864364</v>
-      </c>
-      <c r="L17">
+        <v>6.3051167601469853E-16</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="2"/>
-        <v>-2.9312230751356361E-2</v>
-      </c>
-      <c r="N17" s="18">
+        <v>-0.99999999999999933</v>
+      </c>
+      <c r="Q17" s="18">
         <f t="shared" si="3"/>
-        <v>2.9750418272620607E-2</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13826,7 +14020,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2">
